--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -44,7 +44,46 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 9:35 AM</t>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 14 June, 2025 9:58 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +293,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +305,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +713,136 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>18</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>18</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
         <v>12</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
         <v>13</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="P10" s="13">
+        <v>251.74000000000001</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
+        <v>24</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
+        <v>25</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
+        <v>26</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +856,20 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -83,7 +92,19 @@
     <t>46.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 9:58 AM</t>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 14 June, 2025 10:10 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -790,7 +811,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -807,42 +828,108 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>25</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>26</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>251.74000000000001</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>24</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>25</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>26</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>27</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>28</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>313.24000000000001</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>31</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>32</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>33</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -866,10 +953,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -62,18 +62,36 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
     <t>180.0000</t>
   </si>
   <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -83,6 +101,27 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -104,7 +143,22 @@
     <t>26.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 10:10 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 14 June, 2025 10:21 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -795,7 +849,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -811,7 +865,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -828,7 +882,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -877,7 +931,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -887,49 +941,214 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>30</v>
       </c>
-      <c t="s" r="Q11" s="12">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>31</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>32</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>313.24000000000001</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>31</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>32</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
-        <v>33</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>35</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>38</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>40</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>41</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>42</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>44</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>45</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>46</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>47</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>530.44500000000005</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>49</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>50</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>51</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -963,10 +1182,35 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -158,7 +170,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 10:21 AM</t>
+    <t>Saturday, 14 June, 2025 10:25 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,7 +1009,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1007,14 +1019,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1023,14 +1035,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1040,14 +1052,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1056,14 +1068,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1102,53 +1114,86 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>530.44500000000005</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
         <v>49</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
         <v>50</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>51</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>575.44500000000005</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>53</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>54</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>55</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1207,10 +1252,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -155,6 +164,15 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -167,10 +185,13 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 14 June, 2025 10:25 AM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>Saturday, 14 June, 2025 11:19 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1042,7 +1063,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1052,7 +1073,7 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
@@ -1075,7 +1096,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1092,7 +1113,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1108,7 +1129,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1118,11 +1139,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1134,66 +1155,132 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>575.44500000000005</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>51</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>18</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>52</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
         <v>53</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
         <v>54</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
         <v>55</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>56</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>57</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>638.005</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>60</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>61</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>62</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1257,10 +1344,20 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -191,7 +191,7 @@
     <t>2:0</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 11:19 AM</t>
+    <t>Saturday, 14 June, 2025 11:33 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -62,12 +62,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>26:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>82.50</t>
   </si>
   <si>
@@ -125,6 +137,36 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -164,6 +206,27 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8672:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -182,16 +245,10 @@
     <t>0</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>Saturday, 14 June, 2025 11:33 AM</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 14 June, 2025 11:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -882,7 +939,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -891,14 +948,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -908,14 +965,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -924,14 +981,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -941,14 +998,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -957,14 +1014,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -974,14 +1031,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -990,14 +1047,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1047,7 +1104,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1073,14 +1130,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1089,14 +1146,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1106,14 +1163,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1122,14 +1179,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1139,14 +1196,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1155,14 +1212,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1172,14 +1229,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1188,14 +1245,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1205,11 +1262,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1221,66 +1278,264 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>58</v>
       </c>
-      <c t="s" r="Q19" s="12">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>13</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>638.005</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>60</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c t="s" r="Q20" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>61</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>62</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>63</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>43</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>66</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>68</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>69</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>13</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>70</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>21</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>13</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>75</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>76</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>77</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>70</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>798.005</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>79</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>80</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>81</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1354,10 +1609,40 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -86,6 +86,15 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -248,7 +257,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 11:35 AM</t>
+    <t>Saturday, 14 June, 2025 11:36 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1021,7 +1030,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1054,7 +1063,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1071,7 +1080,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1087,7 +1096,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1097,11 +1106,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1113,14 +1122,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1130,14 +1139,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1146,14 +1155,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1163,11 +1172,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1179,14 +1188,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1219,7 +1228,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1252,7 +1261,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1262,14 +1271,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1285,7 +1294,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1295,7 +1304,7 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
@@ -1318,7 +1327,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1335,7 +1344,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1351,7 +1360,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1361,11 +1370,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1377,14 +1386,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1417,7 +1426,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1427,11 +1436,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1443,14 +1452,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1467,7 +1476,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1483,59 +1492,92 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>78</v>
       </c>
-      <c t="s" r="Q25" s="12">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>798.005</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>79</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
         <v>80</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>73</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c t="s" r="Q26" s="12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>842.005</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>82</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>83</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>84</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1639,10 +1681,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -257,7 +257,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 11:36 AM</t>
+    <t>Saturday, 14 June, 2025 11:37 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -257,7 +257,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 11:37 AM</t>
+    <t>Saturday, 14 June, 2025 11:44 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -194,6 +194,15 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -257,7 +266,7 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 11:44 AM</t>
+    <t>Saturday, 14 June, 2025 11:45 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1360,7 +1369,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1393,7 +1402,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1403,11 +1412,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1419,14 +1428,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1459,7 +1468,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1469,11 +1478,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1485,14 +1494,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1509,7 +1518,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1525,59 +1534,92 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>81</v>
       </c>
-      <c t="s" r="Q26" s="12">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>82</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>83</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>76</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>42</v>
       </c>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>842.005</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>82</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>83</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>84</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>880.005</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>85</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>86</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>87</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1686,10 +1728,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>21.7800</t>
   </si>
   <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -188,9 +200,6 @@
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
-    <t>240.00</t>
-  </si>
-  <si>
     <t>79.2000</t>
   </si>
   <si>
@@ -233,6 +242,18 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -257,16 +278,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 14 June, 2025 11:45 AM</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>Saturday, 14 June, 2025 12:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1237,7 +1258,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1247,11 +1268,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1263,14 +1284,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1280,11 +1301,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1296,14 +1317,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1313,14 +1334,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1329,14 +1350,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1346,11 +1367,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1362,7 +1383,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1379,14 +1400,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1402,7 +1423,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1435,7 +1456,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1445,11 +1466,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1461,14 +1482,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1501,7 +1522,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1511,11 +1532,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1527,14 +1548,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1573,53 +1594,119 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>85</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>21</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>13</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>86</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>88</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>880.005</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>85</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>86</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>87</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>89</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>83</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1138.835</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>92</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>93</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>94</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1733,10 +1820,20 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>25.7400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -95,6 +107,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -107,9 +128,6 @@
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
     <t>87.0000</t>
   </si>
   <si>
@@ -239,9 +257,6 @@
     <t>35.00</t>
   </si>
   <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -287,7 +302,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 12:00 PM</t>
+    <t>Saturday, 14 June, 2025 12:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -978,7 +993,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -987,14 +1002,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1011,7 +1026,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1020,14 +1035,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1037,14 +1052,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1053,14 +1068,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1070,14 +1085,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1086,14 +1101,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1103,14 +1118,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1119,14 +1134,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1136,14 +1151,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1152,14 +1167,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1169,14 +1184,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1185,14 +1200,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1202,14 +1217,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1218,14 +1233,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1235,14 +1250,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1251,14 +1266,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1268,14 +1283,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1284,14 +1299,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1301,14 +1316,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1317,14 +1332,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1341,7 +1356,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1357,7 +1372,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1367,14 +1382,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1390,7 +1405,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1400,14 +1415,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1416,14 +1431,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1433,14 +1448,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1449,14 +1464,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1466,14 +1481,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1489,7 +1504,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1499,14 +1514,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1515,14 +1530,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1532,14 +1547,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1548,14 +1563,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1565,14 +1580,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1581,14 +1596,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1598,14 +1613,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1614,14 +1629,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1631,11 +1646,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1647,66 +1662,132 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
         <v>90</v>
       </c>
-      <c t="s" r="Q29" s="12">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>25</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>13</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1138.835</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>92</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>93</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>48</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
         <v>94</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>88</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1202.5450000000001</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>97</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>98</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>99</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1830,10 +1911,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -221,6 +221,21 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
@@ -293,16 +308,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>8.0000</t>
   </si>
   <si>
     <t>4:0</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 12:02 PM</t>
+    <t>Saturday, 14 June, 2025 12:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1504,24 +1516,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1530,14 +1542,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1547,11 +1559,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1563,14 +1575,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1580,11 +1592,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -1596,14 +1608,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1613,11 +1625,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -1629,14 +1641,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1646,14 +1658,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1662,14 +1674,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1679,14 +1691,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1695,14 +1707,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1712,14 +1724,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1728,66 +1740,99 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>96</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1202.5450000000001</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
-        <v>97</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>98</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>48</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>72</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>93</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1229.5450000000001</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>101</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>102</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>103</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1921,10 +1966,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -74,6 +74,24 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -86,9 +104,6 @@
     <t>33.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -167,9 +182,6 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -227,9 +239,6 @@
     <t>6:3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -305,6 +314,15 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -314,7 +332,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 12:03 PM</t>
+    <t>Saturday, 14 June, 2025 12:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1027,18 +1045,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1047,14 +1065,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1064,14 +1082,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1080,14 +1098,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1097,14 +1115,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1113,14 +1131,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1130,14 +1148,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1146,14 +1164,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1163,14 +1181,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1179,14 +1197,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1196,14 +1214,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1212,14 +1230,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1229,14 +1247,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1245,14 +1263,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1262,11 +1280,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1278,14 +1296,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1295,14 +1313,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1311,14 +1329,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1328,14 +1346,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1344,14 +1362,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1368,7 +1386,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1384,7 +1402,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1394,14 +1412,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1410,14 +1428,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1427,14 +1445,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1443,14 +1461,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1460,14 +1478,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1476,14 +1494,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1493,11 +1511,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1509,28 +1527,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1542,20 +1560,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1566,7 +1584,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1582,7 +1600,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1599,7 +1617,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1615,7 +1633,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1625,14 +1643,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1641,14 +1659,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1662,10 +1680,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1674,14 +1692,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1695,10 +1713,10 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1707,14 +1725,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1724,14 +1742,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1740,14 +1758,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1764,7 +1782,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1780,59 +1798,125 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1229.5450000000001</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>101</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>53</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>23</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>102</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>104</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>53</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>23</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>96</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1244.5450000000001</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>107</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>108</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>109</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1971,10 +2055,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -332,7 +332,7 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 12:24 PM</t>
+    <t>Saturday, 14 June, 2025 12:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -113,6 +113,15 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
   </si>
   <si>
@@ -131,6 +140,15 @@
     <t>35.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -197,9 +215,6 @@
     <t>18.00</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
@@ -326,13 +341,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>Saturday, 14 June, 2025 12:30 PM</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>Saturday, 14 June, 2025 12:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1138,7 +1153,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1155,7 +1170,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1171,7 +1186,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1188,7 +1203,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1204,7 +1219,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1221,7 +1236,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1237,7 +1252,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1247,14 +1262,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1263,14 +1278,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1280,14 +1295,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1296,14 +1311,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1313,14 +1328,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1329,14 +1344,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1346,14 +1361,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1362,14 +1377,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1379,14 +1394,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1395,14 +1410,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1412,11 +1427,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>26</v>
@@ -1428,14 +1443,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1445,11 +1460,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>26</v>
@@ -1461,14 +1476,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1482,7 +1497,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>26</v>
@@ -1494,14 +1509,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1511,14 +1526,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1527,7 +1542,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1544,14 +1559,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1573,15 +1588,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1593,7 +1608,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1610,14 +1625,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1626,31 +1641,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1659,14 +1674,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1676,11 +1691,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -1692,14 +1707,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1709,11 +1724,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -1725,14 +1740,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1742,14 +1757,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1758,14 +1773,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1775,11 +1790,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -1791,14 +1806,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1808,11 +1823,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1824,28 +1839,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -1857,66 +1872,132 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>106</v>
       </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1244.5450000000001</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>59</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>23</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>107</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>108</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c t="s" r="Q35" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>109</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>59</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>23</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>101</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1311.5699999999999</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>112</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>113</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>114</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2065,10 +2146,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -74,6 +74,21 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>12.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -311,13 +323,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8672:0</t>
+    <t>8671:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>ZYRTEC 10MG 20 TAB</t>
@@ -338,6 +350,12 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -347,7 +365,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 12:45 PM</t>
+    <t>Saturday, 14 June, 2025 12:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1060,18 +1078,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1080,20 +1098,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1104,7 +1122,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1120,7 +1138,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1130,14 +1148,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1146,14 +1164,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1163,11 +1181,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1179,14 +1197,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1196,14 +1214,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1212,14 +1230,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1229,14 +1247,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1245,14 +1263,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1262,11 +1280,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1278,14 +1296,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1295,14 +1313,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1311,14 +1329,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1328,14 +1346,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1344,14 +1362,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1361,14 +1379,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1377,14 +1395,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1434,7 +1452,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1450,7 +1468,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1460,14 +1478,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1476,14 +1494,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1497,10 +1515,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1509,14 +1527,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1526,14 +1544,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1542,14 +1560,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1559,14 +1577,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1575,14 +1593,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1592,14 +1610,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1608,14 +1626,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1629,7 +1647,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1641,24 +1659,24 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1681,24 +1699,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1707,14 +1725,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1724,14 +1742,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1740,14 +1758,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1764,7 +1782,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1780,7 +1798,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1790,14 +1808,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1806,14 +1824,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1823,14 +1841,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,7 +1881,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1879,7 +1897,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1889,14 +1907,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1905,31 +1923,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1938,66 +1956,132 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>111</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1311.5699999999999</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>112</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>113</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>63</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>28</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>114</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>63</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>28</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>105</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1360.5699999999999</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>118</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>119</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>120</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2156,10 +2240,20 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BRONCHOPHANE 125ML SYRUP.</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -86,9 +101,6 @@
     <t>43.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -221,12 +233,18 @@
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>18.00</t>
   </si>
   <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
@@ -254,6 +272,9 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
     <t>ORLY 120MG 30 CAPS.</t>
   </si>
   <si>
@@ -365,7 +386,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 12:46 PM</t>
+    <t>Saturday, 14 June, 2025 1:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1056,7 +1077,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1065,14 +1086,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1082,14 +1103,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1111,18 +1132,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1131,20 +1152,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1155,7 +1176,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1171,7 +1192,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1181,14 +1202,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1197,14 +1218,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1214,11 +1235,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1230,14 +1251,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1247,14 +1268,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1263,14 +1284,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1280,14 +1301,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1296,14 +1317,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1313,11 +1334,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1329,14 +1350,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1346,14 +1367,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1362,14 +1383,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1379,14 +1400,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1395,14 +1416,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1412,14 +1433,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1428,14 +1449,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1485,7 +1506,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1501,7 +1522,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1511,14 +1532,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1527,14 +1548,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1548,10 +1569,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1560,14 +1581,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1577,14 +1598,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1600,7 +1621,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1617,7 +1638,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1633,7 +1654,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1643,14 +1664,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1666,7 +1687,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1676,14 +1697,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1692,24 +1713,24 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1732,7 +1753,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1742,14 +1763,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1758,14 +1779,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1775,14 +1796,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1791,31 +1812,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1824,14 +1845,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1841,14 +1862,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1857,14 +1878,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1874,14 +1895,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1890,14 +1911,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1907,14 +1928,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1923,14 +1944,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1940,14 +1961,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1956,31 +1977,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1989,31 +2010,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2022,66 +2043,165 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1360.5699999999999</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>67</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>32</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>118</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c t="s" r="Q39" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>120</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>67</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>32</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>121</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>122</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>67</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>32</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>112</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1433.5699999999999</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>125</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>126</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>127</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2250,10 +2370,25 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -362,6 +362,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -386,7 +392,7 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 1:10 PM</t>
+    <t>Saturday, 14 June, 2025 1:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2083,7 +2089,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2093,11 +2099,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2109,7 +2115,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2126,11 +2132,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2159,49 +2165,82 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1433.5699999999999</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>67</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>32</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>112</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>125</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c t="s" r="Q42" s="12">
         <v>126</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1468.5699999999999</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
         <v>127</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>128</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>129</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2385,10 +2424,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -131,10 +131,13 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>82.50</t>
   </si>
   <si>
-    <t>27.2250</t>
+    <t>54.4500</t>
   </si>
   <si>
     <t>DANSET 8MG/4ML 3 AMP.</t>
@@ -200,9 +203,6 @@
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -386,13 +386,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>Saturday, 14 June, 2025 1:54 PM</t>
+    <t>Saturday, 14 June, 2025 1:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1231,7 +1225,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1241,14 +1235,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1257,7 +1251,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1274,11 +1268,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1290,7 +1284,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1307,11 +1301,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>21</v>
@@ -1323,7 +1317,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1340,11 +1334,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1356,7 +1350,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1373,11 +1367,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1389,7 +1383,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1406,11 +1400,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1422,7 +1416,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1443,7 +1437,7 @@
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1455,7 +1449,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1472,11 +1466,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1488,14 +1482,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1608,7 +1602,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1971,7 +1965,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2103,7 +2097,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2202,21 +2196,21 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
       <c r="P43" s="13">
-        <v>1468.5699999999999</v>
+        <v>1497.7950000000001</v>
       </c>
       <c r="Q43" s="13"/>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c t="s" r="A44" s="14">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -2224,13 +2218,13 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
       <c t="s" r="G44" s="15">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="16"/>
       <c t="s" r="K44" s="17">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>CALDIN ZINC SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -212,9 +224,6 @@
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>240.00</t>
   </si>
   <si>
@@ -230,6 +239,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>KATIVAROX SYRUP</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -272,6 +290,15 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>ORACURE ORAL GEL 30 GM</t>
   </si>
   <si>
@@ -302,6 +329,9 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -353,6 +383,18 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -386,7 +428,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 1:55 PM</t>
+    <t>Saturday, 14 June, 2025 2:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1165,15 +1207,15 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1185,20 +1227,20 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1242,7 +1284,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1258,7 +1300,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1268,14 +1310,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1284,14 +1326,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1301,14 +1343,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1317,14 +1359,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1334,14 +1376,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1350,14 +1392,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1367,11 +1409,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1383,14 +1425,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1400,14 +1442,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1416,14 +1458,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1433,11 +1475,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1449,14 +1491,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1466,14 +1508,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1482,14 +1524,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1499,11 +1541,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1515,14 +1557,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1539,7 +1581,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1555,7 +1597,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1588,7 +1630,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1602,7 +1644,7 @@
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1614,31 +1656,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1647,7 +1689,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1664,11 +1706,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1687,7 +1729,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1704,7 +1746,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1720,7 +1762,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1730,14 +1772,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1753,7 +1795,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1763,11 +1805,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1779,14 +1821,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1800,7 +1842,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1812,31 +1854,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1845,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1862,11 +1904,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1885,7 +1927,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1895,14 +1937,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1911,31 +1953,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1944,14 +1986,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1961,11 +2003,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1984,7 +2026,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1994,14 +2036,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2010,14 +2052,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2027,14 +2069,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2043,14 +2085,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2060,14 +2102,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2076,28 +2118,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2109,31 +2151,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2142,31 +2184,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2182,59 +2224,224 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>101</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1497.7950000000001</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>125</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>126</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>127</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>128</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>21</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>13</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>129</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>131</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>132</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>36</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>115</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>133</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>27</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>36</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>134</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>136</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>27</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>36</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>137</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>138</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>27</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>36</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>122</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>1985.7950000000001</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>139</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>140</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>141</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2423,10 +2630,35 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>AZADERM 20% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BRONCHOPHANE 125ML SYRUP.</t>
   </si>
   <si>
@@ -74,9 +89,6 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
@@ -92,9 +104,6 @@
     <t>CALDIN ZINC SUSP. 120 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -194,7 +203,7 @@
     <t>180.00</t>
   </si>
   <si>
-    <t>180.0000</t>
+    <t>270.0000</t>
   </si>
   <si>
     <t>FLECTOR 50MG 30 CAPS</t>
@@ -215,9 +224,6 @@
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>66.00</t>
-  </si>
-  <si>
     <t>21.7800</t>
   </si>
   <si>
@@ -254,6 +260,15 @@
     <t>18.00</t>
   </si>
   <si>
+    <t>LUNNER CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -428,7 +443,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 2:02 PM</t>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 14 June, 2025 2:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1152,7 +1176,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1185,7 +1209,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1201,7 +1225,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1211,11 +1235,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>21</v>
@@ -1227,28 +1251,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>21</v>
@@ -1260,28 +1284,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1293,14 +1317,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1310,14 +1334,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1326,14 +1350,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1350,7 +1374,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1366,7 +1390,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1383,7 +1407,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1399,7 +1423,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1416,7 +1440,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1432,7 +1456,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1465,7 +1489,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1482,7 +1506,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1498,7 +1522,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1508,14 +1532,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1524,14 +1548,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1541,14 +1565,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1564,7 +1588,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1597,7 +1621,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,14 +1631,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,14 +1647,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1640,11 +1664,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1656,28 +1680,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1689,7 +1713,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1702,15 +1726,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1743,10 +1767,10 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1755,7 +1779,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1772,11 +1796,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1788,14 +1812,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1805,14 +1829,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1821,14 +1845,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1838,14 +1862,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,14 +1878,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1871,11 +1895,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1887,14 +1911,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1908,10 +1932,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1920,14 +1944,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1937,14 +1961,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1953,31 +1977,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1986,7 +2010,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2003,14 +2027,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2019,31 +2043,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2052,14 +2076,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,11 +2093,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2085,14 +2109,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2102,11 +2126,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2118,14 +2142,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2135,11 +2159,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2151,14 +2175,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2168,14 +2192,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2184,14 +2208,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2201,14 +2225,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,14 +2241,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2234,14 +2258,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2250,14 +2274,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2267,14 +2291,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2283,28 +2307,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2323,13 +2347,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2340,7 +2364,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2356,21 +2380,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>123</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2389,59 +2413,158 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>111</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>1985.7950000000001</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>139</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>140</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>141</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>18</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>39</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>142</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>143</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>18</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>39</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>127</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>144</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>21</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>39</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>145</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2246.7950000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>147</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>148</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>149</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2655,10 +2778,25 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -137,18 +137,27 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>COLLAGICA FORTE BOTTLE</t>
+  </si>
+  <si>
+    <t>0:-7</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>25:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
-  </si>
-  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -269,6 +278,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -281,12 +299,6 @@
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -335,6 +347,18 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
     <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
@@ -452,7 +476,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 2:28 PM</t>
+    <t>Saturday, 14 June, 2025 2:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1330,7 +1354,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
@@ -1371,10 +1395,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1383,14 +1407,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1407,7 +1431,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1423,7 +1447,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1440,7 +1464,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1456,7 +1480,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1473,7 +1497,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1489,7 +1513,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1522,7 +1546,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1539,7 +1563,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1555,7 +1579,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1565,14 +1589,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1581,14 +1605,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1598,14 +1622,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1621,7 +1645,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1631,11 +1655,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1647,14 +1671,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1664,14 +1688,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1687,7 +1711,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1720,13 +1744,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1753,13 +1777,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1767,7 +1791,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1779,14 +1803,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1796,11 +1820,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1819,7 +1843,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1836,7 +1860,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1852,7 +1876,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1885,7 +1909,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1902,7 +1926,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1918,7 +1942,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1928,14 +1952,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1944,14 +1968,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1961,11 +1985,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1977,14 +2001,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1994,14 +2018,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2017,7 +2041,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2027,14 +2051,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2043,31 +2067,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2076,7 +2100,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2093,14 +2117,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2109,31 +2133,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2149,7 +2173,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2159,14 +2183,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2175,14 +2199,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2215,7 +2239,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2225,11 +2249,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2241,14 +2265,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2258,14 +2282,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2274,14 +2298,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2291,14 +2315,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2307,14 +2331,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2324,11 +2348,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2340,14 +2364,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2357,11 +2381,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2373,31 +2397,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2406,20 +2430,20 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2446,13 +2470,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2460,10 +2484,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2472,14 +2496,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2489,14 +2513,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2505,14 +2529,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2522,49 +2546,148 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2246.7950000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>147</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
-        <v>148</v>
-      </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>149</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>18</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>39</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>150</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>151</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>18</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>39</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>135</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>152</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>21</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>39</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>153</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2567.5149999999999</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
+        <v>155</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
+        <v>156</v>
+      </c>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
+        <v>157</v>
+      </c>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2793,10 +2916,25 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -476,7 +476,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 2:56 PM</t>
+    <t>Saturday, 14 June, 2025 3:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -206,6 +206,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -476,7 +485,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 3:03 PM</t>
+    <t>Saturday, 14 June, 2025 3:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1579,7 +1588,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1589,14 +1598,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1612,7 +1621,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1622,14 +1631,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1638,14 +1647,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1655,14 +1664,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1678,7 +1687,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1688,11 +1697,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1704,14 +1713,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1721,14 +1730,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1744,7 +1753,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1777,13 +1786,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1810,13 +1819,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1824,7 +1833,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1836,14 +1845,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1853,11 +1862,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1876,7 +1885,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1909,7 +1918,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1926,7 +1935,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1942,7 +1951,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1952,14 +1961,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1968,14 +1977,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1985,11 +1994,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2008,7 +2017,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2018,14 +2027,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2041,7 +2050,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2051,14 +2060,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2074,7 +2083,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2084,11 +2093,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2100,14 +2109,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2117,14 +2126,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2133,28 +2142,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2166,28 +2175,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2199,14 +2208,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2223,7 +2232,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2239,7 +2248,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2249,11 +2258,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2265,14 +2274,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2282,11 +2291,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2305,7 +2314,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2315,11 +2324,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2331,14 +2340,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2352,7 +2361,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2364,14 +2373,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2385,10 +2394,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2397,14 +2406,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2414,14 +2423,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2430,14 +2439,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2447,14 +2456,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2463,14 +2472,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2487,7 +2496,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2503,24 +2512,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2529,14 +2538,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2546,11 +2555,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2583,7 +2592,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2595,7 +2604,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2612,14 +2621,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>124</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2628,14 +2637,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2645,49 +2654,82 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2567.5149999999999</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>155</v>
       </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>21</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>39</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>156</v>
       </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>157</v>
       </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+      <c t="s" r="Q54" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>2571.355</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>158</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>159</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>160</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2931,10 +2973,15 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>250.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -485,7 +497,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 3:04 PM</t>
+    <t>Saturday, 14 June, 2025 3:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1404,10 +1416,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1416,14 +1428,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1433,14 +1445,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1456,7 +1468,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1466,14 +1478,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1482,14 +1494,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1499,14 +1511,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1515,14 +1527,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1532,14 +1544,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1548,14 +1560,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1565,11 +1577,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1581,14 +1593,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1598,11 +1610,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1614,14 +1626,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1631,14 +1643,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1647,14 +1659,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1664,14 +1676,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1680,14 +1692,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1697,14 +1709,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1713,14 +1725,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1730,11 +1742,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1746,14 +1758,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1763,14 +1775,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1779,14 +1791,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1796,11 +1808,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1812,28 +1824,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1845,28 +1857,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1878,14 +1890,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1895,11 +1907,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1911,14 +1923,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1928,11 +1940,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1944,14 +1956,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1961,14 +1973,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1977,14 +1989,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1994,14 +2006,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2010,14 +2022,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2027,11 +2039,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2043,14 +2055,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2060,14 +2072,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2076,14 +2088,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2093,14 +2105,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2109,14 +2121,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2126,11 +2138,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2142,14 +2154,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2159,14 +2171,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2175,24 +2187,24 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2221,7 +2233,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2248,7 +2260,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2258,14 +2270,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2274,14 +2286,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2291,11 +2303,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2307,14 +2319,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2324,11 +2336,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2340,14 +2352,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2380,7 +2392,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2390,11 +2402,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2406,14 +2418,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2423,14 +2435,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2463,7 +2475,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2496,7 +2508,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2512,7 +2524,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2522,14 +2534,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2538,31 +2550,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>61</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2571,14 +2583,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2588,11 +2600,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2604,7 +2616,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2621,11 +2633,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2637,7 +2649,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2654,14 +2666,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>127</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2670,14 +2682,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2687,49 +2699,82 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>131</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>2571.355</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>158</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>159</v>
       </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>21</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>39</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>160</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2595.1149999999998</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>162</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>163</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>164</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2978,10 +3023,15 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -497,7 +497,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 3:43 PM</t>
+    <t>Saturday, 14 June, 2025 3:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>AZADERM 20% CREAM 30 GM</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
     <t>1:1</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -488,6 +497,12 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -497,7 +512,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 3:44 PM</t>
+    <t>Saturday, 14 June, 2025 3:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1188,7 +1203,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1197,14 +1212,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1214,14 +1229,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1254,7 +1269,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1270,7 +1285,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1280,14 +1295,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1303,7 +1318,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1313,14 +1328,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1329,31 +1344,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1362,31 +1377,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1395,31 +1410,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1428,14 +1443,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1445,14 +1460,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1482,10 +1497,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1494,14 +1509,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1518,7 +1533,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1534,7 +1549,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1551,7 +1566,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1567,7 +1582,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1584,7 +1599,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1600,7 +1615,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1633,7 +1648,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1643,7 +1658,7 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1666,7 +1681,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1676,14 +1691,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1699,7 +1714,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1709,14 +1724,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1725,14 +1740,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1742,14 +1757,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1765,7 +1780,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1775,11 +1790,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1791,14 +1806,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1808,14 +1823,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1831,7 +1846,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1848,7 +1863,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1864,13 +1879,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1881,7 +1896,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1897,13 +1912,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1911,10 +1926,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1923,14 +1938,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1940,14 +1955,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1963,7 +1978,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1980,7 +1995,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1996,7 +2011,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2013,7 +2028,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2029,7 +2044,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2039,14 +2054,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2055,14 +2070,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2072,14 +2087,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2095,7 +2110,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2105,14 +2120,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>19</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2128,7 +2143,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2138,14 +2153,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2161,7 +2176,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2171,14 +2186,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2187,14 +2202,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2204,14 +2219,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2220,28 +2235,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2253,28 +2268,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2286,14 +2301,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2310,7 +2325,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2326,7 +2341,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2336,14 +2351,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2352,14 +2367,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2369,14 +2384,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2392,7 +2407,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2402,14 +2417,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2418,14 +2433,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2439,10 +2454,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2451,14 +2466,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2472,10 +2487,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2484,14 +2499,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2501,14 +2516,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2517,14 +2532,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2534,14 +2549,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2550,14 +2565,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2574,7 +2589,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2590,24 +2605,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2616,31 +2631,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2656,13 +2671,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2670,10 +2685,10 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2682,31 +2697,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>131</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2715,66 +2730,99 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2595.1149999999998</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
-        <v>162</v>
-      </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
-        <v>163</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
         <v>164</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>25</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>42</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>165</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2609.5949999999998</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>167</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>168</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>169</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3028,10 +3076,15 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -512,7 +512,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 3:45 PM</t>
+    <t>Saturday, 14 June, 2025 4:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -293,6 +293,15 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -497,10 +506,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
+    <t>25.00</t>
   </si>
   <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
@@ -512,7 +527,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 4:10 PM</t>
+    <t>Saturday, 14 June, 2025 4:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1945,7 +1960,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1955,14 +1970,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1971,14 +1986,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1988,11 +2003,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2011,7 +2026,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2044,7 +2059,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2061,7 +2076,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2077,7 +2092,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2087,14 +2102,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2103,14 +2118,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2120,11 +2135,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2143,7 +2158,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2153,14 +2168,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2176,7 +2191,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>113</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2186,14 +2201,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2209,7 +2224,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2219,11 +2234,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2235,14 +2250,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2252,14 +2267,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2268,28 +2283,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2301,28 +2316,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2334,14 +2349,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2358,7 +2373,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2374,7 +2389,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2384,11 +2399,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2400,14 +2415,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2417,11 +2432,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2440,7 +2455,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2450,11 +2465,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2487,7 +2502,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2520,10 +2535,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2532,14 +2547,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2549,14 +2564,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2565,14 +2580,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2582,14 +2597,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2598,14 +2613,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2622,7 +2637,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2638,24 +2653,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2664,14 +2679,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2681,11 +2696,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2718,7 +2733,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -2730,7 +2745,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2747,14 +2762,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>163</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2770,7 +2785,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2780,49 +2795,115 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>166</v>
       </c>
-      <c t="s" r="Q56" s="12">
-        <v>25</v>
-      </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2609.5949999999998</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>167</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>22</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>42</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
         <v>168</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>169</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>25</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>42</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>170</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2648.5949999999998</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>172</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>173</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>174</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3081,10 +3162,20 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -527,7 +527,7 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 4:23 PM</t>
+    <t>Saturday, 14 June, 2025 4:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>BETASERC 24MG 40 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
     <t>BRONCHOPHANE 125ML SYRUP.</t>
   </si>
   <si>
@@ -104,9 +116,6 @@
     <t>BRUFEN 400MG 30 TAB</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -131,6 +140,18 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CEREBROCETAM 1GM/5ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -260,6 +281,18 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -299,9 +332,6 @@
     <t>2:3</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -386,6 +416,27 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -440,9 +491,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -488,6 +536,18 @@
     <t>36:0</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>16:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -524,10 +584,19 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>Saturday, 14 June, 2025 4:28 PM</t>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>Saturday, 14 June, 2025 4:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1284,7 +1353,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1310,14 +1379,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1326,14 +1395,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1343,14 +1412,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1366,7 +1435,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1376,11 +1445,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>25</v>
@@ -1392,28 +1461,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>25</v>
@@ -1425,28 +1494,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>25</v>
@@ -1458,31 +1527,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1491,31 +1560,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1548,7 +1617,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1564,7 +1633,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1574,14 +1643,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1597,7 +1666,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1607,14 +1676,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1623,14 +1692,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1640,11 +1709,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1656,14 +1725,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1673,14 +1742,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1689,14 +1758,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1706,11 +1775,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1722,14 +1791,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1739,14 +1808,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1755,14 +1824,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1772,14 +1841,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1788,7 +1857,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1805,14 +1874,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1821,14 +1890,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1838,14 +1907,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1854,14 +1923,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1871,14 +1940,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1887,14 +1956,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1904,11 +1973,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -1920,31 +1989,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1953,14 +2022,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1970,14 +2039,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1986,14 +2055,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2003,11 +2072,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2019,7 +2088,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2032,15 +2101,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2052,14 +2121,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2069,14 +2138,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2085,7 +2154,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2102,14 +2171,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2118,14 +2187,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2135,11 +2204,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2151,7 +2220,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2168,11 +2237,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2184,14 +2253,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2201,11 +2270,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2217,14 +2286,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2234,11 +2303,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2250,14 +2319,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2267,11 +2336,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2283,14 +2352,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2300,11 +2369,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2316,31 +2385,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2349,14 +2418,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2366,14 +2435,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2399,14 +2468,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2415,31 +2484,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2448,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2465,14 +2534,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2481,14 +2550,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2498,14 +2567,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2514,14 +2583,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2531,14 +2600,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2547,14 +2616,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2564,14 +2633,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2580,14 +2649,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2597,14 +2666,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2620,7 +2689,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2630,11 +2699,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2646,14 +2715,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2670,7 +2739,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2686,21 +2755,21 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2719,13 +2788,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2736,7 +2805,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2752,24 +2821,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2778,31 +2847,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>166</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2811,31 +2880,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2844,66 +2913,330 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2648.5949999999998</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>172</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
-        <v>173</v>
-      </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
-        <v>174</v>
-      </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>175</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>176</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>49</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>177</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>179</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>22</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>49</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>180</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>182</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>22</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>49</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>183</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>184</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>22</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>49</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>164</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>187</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>22</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>49</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>188</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>189</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>25</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>49</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>190</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>191</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>22</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>49</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>190</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>192</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>193</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>49</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>32</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3044.5949999999998</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>195</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>196</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>197</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3172,10 +3505,50 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>11.5200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
     <t>28.7100</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -86,7 +98,16 @@
     <t>66.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
   </si>
   <si>
     <t>BETASERC 24MG 40 TABS</t>
@@ -104,9 +125,6 @@
     <t>BRONCHOPHANE 125ML SYRUP.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -185,9 +203,6 @@
     <t>1:3</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -248,6 +263,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -260,9 +284,6 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
     <t>270.0000</t>
   </si>
   <si>
@@ -344,18 +365,9 @@
     <t>90.00</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>MEGALASE SYRUP 125 ML</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>MIDODRINE 2.5MG 20 TAB</t>
   </si>
   <si>
@@ -368,6 +380,9 @@
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
@@ -566,10 +581,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>سكاته بوب تون</t>
@@ -596,7 +608,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 4:33 PM</t>
+    <t>Saturday, 14 June, 2025 4:38 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1320,7 +1332,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1329,14 +1341,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1346,14 +1358,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1362,14 +1374,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1379,14 +1391,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1395,14 +1407,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1412,11 +1424,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1428,14 +1440,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1445,14 +1457,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1461,14 +1473,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1478,14 +1490,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1494,14 +1506,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1511,14 +1523,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1527,31 +1539,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1560,31 +1572,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1593,31 +1605,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1626,31 +1638,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1659,14 +1671,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1676,14 +1688,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1692,14 +1704,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1709,14 +1721,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1725,14 +1737,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1742,14 +1754,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1758,14 +1770,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1775,11 +1787,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1791,14 +1803,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1808,14 +1820,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1824,14 +1836,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1841,11 +1853,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1857,14 +1869,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1874,14 +1886,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1890,14 +1902,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1907,14 +1919,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1930,7 +1942,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1940,7 +1952,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1963,7 +1975,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1973,14 +1985,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1989,14 +2001,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2006,14 +2018,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2022,14 +2034,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2039,14 +2051,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2055,14 +2067,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2072,14 +2084,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2088,31 +2100,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2121,14 +2133,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2138,14 +2150,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2154,14 +2166,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2171,14 +2183,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2194,13 +2206,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2211,7 +2223,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2227,7 +2239,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2237,14 +2249,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2253,14 +2265,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2270,14 +2282,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2286,14 +2298,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2303,14 +2315,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2319,14 +2331,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2336,14 +2348,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2352,14 +2364,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2369,11 +2381,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2385,14 +2397,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2402,14 +2414,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2418,14 +2430,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2435,14 +2447,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2451,14 +2463,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2468,14 +2480,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2484,28 +2496,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>27</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2517,14 +2529,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2546,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2550,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,14 +2579,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2583,14 +2595,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2600,11 +2612,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2616,31 +2628,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2649,14 +2661,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2666,14 +2678,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2682,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>27</v>
+        <v>144</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2699,14 +2711,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2715,14 +2727,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,14 +2744,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2748,14 +2760,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,14 +2777,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2781,14 +2793,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2798,14 +2810,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2814,14 +2826,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>163</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2831,14 +2843,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2847,14 +2859,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2864,14 +2876,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2880,14 +2892,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2897,14 +2909,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2913,31 +2925,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2946,31 +2958,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2979,31 +2991,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3012,31 +3024,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3045,31 +3057,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3078,31 +3090,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3111,31 +3123,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3144,31 +3156,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3177,66 +3189,198 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>183</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>191</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>26</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>55</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>192</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>193</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>12</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>55</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
         <v>194</v>
       </c>
-      <c t="s" r="Q66" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3044.5949999999998</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>195</v>
       </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>26</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>55</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>194</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
         <v>196</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
         <v>197</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>55</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>38</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="P71" s="13">
+        <v>3211.1149999999998</v>
+      </c>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c t="s" r="A72" s="14">
+        <v>199</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c t="s" r="G72" s="15">
+        <v>200</v>
+      </c>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c t="s" r="K72" s="17">
+        <v>201</v>
+      </c>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+      <c r="O72" s="17"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="332">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3545,10 +3689,30 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="K72:Q72"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CENTRUM WITH LUTEIN 30 TABS.</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>265.0000</t>
+  </si>
+  <si>
     <t>CEREBROCETAM 1GM/5ML 6 AMP.</t>
   </si>
   <si>
@@ -608,7 +617,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 4:38 PM</t>
+    <t>Saturday, 14 June, 2025 4:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1579,7 +1588,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1589,11 +1598,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1605,28 +1614,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1638,28 +1647,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1671,31 +1680,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1721,14 +1730,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1758,10 +1767,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1770,14 +1779,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1794,7 +1803,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1810,7 +1819,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1827,7 +1836,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1843,7 +1852,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1860,7 +1869,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1876,7 +1885,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1909,7 +1918,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1942,7 +1951,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1952,7 +1961,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1975,7 +1984,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1985,14 +1994,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2001,14 +2010,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2018,14 +2027,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2034,14 +2043,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2051,14 +2060,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2074,7 +2083,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2084,14 +2093,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2100,14 +2109,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2117,14 +2126,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2133,14 +2142,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2150,14 +2159,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2173,7 +2182,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2206,13 +2215,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2239,24 +2248,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2265,14 +2274,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2282,14 +2291,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2298,14 +2307,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2315,7 +2324,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2331,14 +2340,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2348,11 +2357,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2364,14 +2373,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2381,14 +2390,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2404,7 +2413,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2414,14 +2423,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2430,14 +2439,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2447,14 +2456,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2463,7 +2472,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2480,14 +2489,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2503,7 +2512,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2513,14 +2522,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2536,7 +2545,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2546,14 +2555,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2569,7 +2578,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2579,11 +2588,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2612,14 +2621,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2628,28 +2637,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2661,20 +2670,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2701,7 +2710,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2711,14 +2720,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>146</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2744,14 +2753,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>54</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2784,7 +2793,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2800,7 +2809,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2810,11 +2819,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2826,14 +2835,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2843,11 +2852,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2866,7 +2875,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2876,11 +2885,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2913,7 +2922,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2925,14 +2934,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2965,7 +2974,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2975,14 +2984,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2991,14 +3000,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3008,14 +3017,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3024,14 +3033,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3048,7 +3057,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3064,24 +3073,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3090,28 +3099,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3123,20 +3132,20 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3169,7 +3178,7 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3177,7 +3186,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3189,7 +3198,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3202,18 +3211,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>190</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3222,7 +3231,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3235,18 +3244,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3255,28 +3264,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3288,28 +3297,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3321,66 +3330,99 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>197</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>54</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
-      <c r="P71" s="13">
-        <v>3211.1149999999998</v>
-      </c>
-      <c r="Q71" s="13"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c t="s" r="A72" s="14">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
         <v>199</v>
       </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c t="s" r="G72" s="15">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
         <v>200</v>
       </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="15"/>
-      <c r="J72" s="16"/>
-      <c t="s" r="K72" s="17">
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>58</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>38</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
         <v>201</v>
       </c>
-      <c r="L72" s="17"/>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="17"/>
+      <c t="s" r="Q71" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>3476.1149999999998</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>202</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>203</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>204</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="332">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3709,10 +3751,15 @@
     <mergeCell ref="H70:K70"/>
     <mergeCell ref="L70:M70"/>
     <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="K72:Q72"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -158,7 +158,7 @@
     <t>43.0000</t>
   </si>
   <si>
-    <t>CENTRUM WITH LUTEIN 30 TABS.</t>
+    <t>CENTRUM WITH LUTEIN 30 TAB</t>
   </si>
   <si>
     <t>265.00</t>
@@ -617,7 +617,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 4:41 PM</t>
+    <t>Saturday, 14 June, 2025 5:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -428,6 +428,18 @@
     <t>79.2000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -482,6 +494,15 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -617,7 +638,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 5:01 PM</t>
+    <t>Saturday, 14 June, 2025 5:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2683,7 +2704,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2710,21 +2731,21 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2753,14 +2774,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2786,14 +2807,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>54</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q53" s="12">
         <v>153</v>
-      </c>
-      <c t="s" r="Q53" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2809,7 +2830,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2819,14 +2840,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2835,14 +2856,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2852,11 +2873,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2868,14 +2889,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2885,11 +2906,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2901,14 +2922,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2918,11 +2939,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2941,7 +2962,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2955,7 +2976,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2984,14 +3005,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3000,14 +3021,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3017,14 +3038,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3040,7 +3061,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3066,14 +3087,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3090,7 +3111,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3112,15 +3133,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3132,31 +3153,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,11 +3203,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3205,7 +3226,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3215,11 +3236,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3231,7 +3252,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3248,14 +3269,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>193</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3264,7 +3285,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3281,11 +3302,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>124</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3297,14 +3318,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3314,14 +3335,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3330,7 +3351,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3347,11 +3368,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3363,14 +3384,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3380,49 +3401,115 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q71" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>205</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>26</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>58</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>204</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>206</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>207</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>58</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>38</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q73" s="12">
         <v>57</v>
       </c>
     </row>
-    <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>3476.1149999999998</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>202</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>203</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>204</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3629.1149999999998</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>209</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>210</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>211</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3756,10 +3843,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -197,7 +197,7 @@
     <t>COLLAGICA FORTE BOTTLE</t>
   </si>
   <si>
-    <t>0:-7</t>
+    <t>0:3</t>
   </si>
   <si>
     <t>250.00</t>
@@ -470,9 +470,6 @@
     <t>15.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -638,7 +635,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 5:02 PM</t>
+    <t>Saturday, 14 June, 2025 5:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2814,7 +2811,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>153</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2823,14 +2820,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2840,11 +2837,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2856,7 +2853,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2873,11 +2870,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2889,7 +2886,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2906,11 +2903,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2922,7 +2919,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2955,7 +2952,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2972,11 +2969,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2988,14 +2985,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3005,11 +3002,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3021,7 +3018,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3038,7 +3035,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3054,7 +3051,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3071,11 +3068,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3087,14 +3084,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3104,11 +3101,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>30</v>
@@ -3120,14 +3117,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3137,11 +3134,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3153,7 +3150,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3170,11 +3167,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3186,14 +3183,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3203,7 +3200,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3219,14 +3216,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3236,11 +3233,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3252,7 +3249,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3269,11 +3266,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3285,7 +3282,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3302,11 +3299,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3318,7 +3315,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3335,14 +3332,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3351,7 +3348,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3368,7 +3365,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3384,7 +3381,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3401,7 +3398,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3417,7 +3414,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3434,7 +3431,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3450,14 +3447,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3471,7 +3468,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>57</v>
@@ -3485,7 +3482,7 @@
     </row>
     <row r="75" ht="16.5" customHeight="1">
       <c t="s" r="A75" s="14">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -3493,13 +3490,13 @@
       <c r="E75" s="14"/>
       <c r="F75" s="14"/>
       <c t="s" r="G75" s="15">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
       <c r="J75" s="16"/>
       <c t="s" r="K75" s="17">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L75" s="17"/>
       <c r="M75" s="17"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -635,7 +635,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 5:07 PM</t>
+    <t>Saturday, 14 June, 2025 5:12 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t>45.0000</t>
+  </si>
+  <si>
+    <t>JACKODAN GEL 60 GM</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
   </si>
   <si>
     <t>KATIVAROX SYRUP</t>
@@ -2272,7 +2281,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2299,24 +2308,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2342,14 +2351,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2375,11 +2384,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2408,11 +2417,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2424,14 +2433,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2441,14 +2450,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2464,7 +2473,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2474,14 +2483,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2490,14 +2499,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2507,14 +2516,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2523,7 +2532,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2540,14 +2549,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2563,7 +2572,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2573,14 +2582,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2596,7 +2605,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2606,14 +2615,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2629,7 +2638,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2639,11 +2648,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2655,14 +2664,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2688,14 +2697,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2705,11 +2714,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2721,28 +2730,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2754,20 +2763,20 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2794,7 +2803,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2804,14 +2813,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>54</v>
+        <v>151</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2837,14 +2846,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>54</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2853,14 +2862,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2877,7 +2886,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2893,7 +2902,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2936,11 +2945,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2952,14 +2961,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2969,11 +2978,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2992,7 +3001,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3002,11 +3011,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3018,14 +3027,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3039,7 +3048,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>83</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3051,14 +3060,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>151</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3068,14 +3077,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3091,7 +3100,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3101,14 +3110,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3117,14 +3126,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3134,14 +3143,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3150,14 +3159,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3174,7 +3183,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3190,24 +3199,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>83</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3216,14 +3225,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3233,11 +3242,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3249,14 +3258,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3303,7 +3312,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3315,7 +3324,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3332,14 +3341,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>199</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3348,7 +3357,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3365,14 +3374,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3381,14 +3390,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3398,11 +3407,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3414,14 +3423,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3431,11 +3440,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3447,14 +3456,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3464,49 +3473,82 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q73" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>208</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>209</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>58</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>38</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>210</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>57</v>
       </c>
     </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3629.1149999999998</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>208</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>209</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>210</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3718.1149999999998</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>211</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>212</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>213</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3850,10 +3892,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -644,7 +644,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 5:12 PM</t>
+    <t>Saturday, 14 June, 2025 5:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -281,6 +281,12 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -323,6 +329,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -644,7 +659,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 5:15 PM</t>
+    <t>Saturday, 14 June, 2025 5:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2011,24 +2026,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2037,14 +2052,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2054,14 +2069,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2077,7 +2092,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2087,14 +2102,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2110,7 +2125,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2120,14 +2135,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2136,14 +2151,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2153,14 +2168,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2169,14 +2184,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2186,14 +2201,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2242,7 +2257,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2252,14 +2267,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2268,7 +2283,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2285,11 +2300,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2301,28 +2316,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2334,14 +2349,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2351,14 +2366,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2374,13 +2389,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2388,7 +2403,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2400,14 +2415,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2417,14 +2432,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2433,14 +2448,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2450,11 +2465,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2466,14 +2481,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2483,14 +2498,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2499,14 +2514,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2532,14 +2547,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2549,11 +2564,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2565,14 +2580,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2582,11 +2597,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2598,14 +2613,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2615,11 +2630,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2631,14 +2646,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2648,11 +2663,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2664,14 +2679,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2681,14 +2696,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>39</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2697,14 +2712,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2714,14 +2729,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2730,14 +2745,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2747,14 +2762,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2763,28 +2778,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2796,14 +2811,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2813,11 +2828,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2829,31 +2844,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2862,14 +2877,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2879,11 +2894,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2895,14 +2910,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2912,14 +2927,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2928,14 +2943,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2945,14 +2960,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2961,14 +2976,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2978,11 +2993,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2994,14 +3009,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3011,11 +3026,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3027,14 +3042,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3044,11 +3059,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3060,14 +3075,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3077,11 +3092,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3093,14 +3108,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3117,7 +3132,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3133,7 +3148,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3143,14 +3158,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3159,14 +3174,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3176,14 +3191,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3192,14 +3207,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3209,14 +3224,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3225,28 +3240,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3265,24 +3280,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3291,14 +3306,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>196</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3308,11 +3323,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3324,14 +3339,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3341,11 +3356,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3374,14 +3389,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>202</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3390,7 +3405,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3407,11 +3422,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3423,14 +3438,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3440,14 +3455,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3456,7 +3471,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3473,11 +3488,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3489,14 +3504,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3506,49 +3521,115 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>38</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q74" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>212</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>26</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>58</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>211</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>213</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>214</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>58</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>38</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>57</v>
       </c>
     </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3718.1149999999998</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>211</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>212</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>213</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3933.6350000000002</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>216</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>217</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>218</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3897,10 +3978,20 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -659,7 +659,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 5:16 PM</t>
+    <t>Saturday, 14 June, 2025 5:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -641,6 +641,12 @@
     <t>25.00</t>
   </si>
   <si>
+    <t xml:space="preserve">فاميليا مناديل </t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -659,7 +665,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 5:18 PM</t>
+    <t>Saturday, 14 June, 2025 5:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3511,7 +3517,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3521,14 +3527,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3544,7 +3550,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3554,7 +3560,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3570,14 +3576,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>214</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3587,49 +3593,82 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>38</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>215</v>
       </c>
-      <c t="s" r="Q76" s="12">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>216</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>58</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>38</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>57</v>
       </c>
     </row>
-    <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3933.6350000000002</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
-        <v>216</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
-        <v>217</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>3993.6350000000002</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
         <v>218</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>219</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>220</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3988,10 +4027,15 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -65,331 +65,352 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>AZADERM 20% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>BETAFOS 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>BETASERC 24MG 40 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>218.00</t>
+  </si>
+  <si>
+    <t>109.0000</t>
+  </si>
+  <si>
+    <t>BRONCHOPHANE 125ML SYRUP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 400MG 30 TAB</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
+    <t>CALDIN ZINC SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CENTRUM WITH LUTEIN 30 TAB</t>
+  </si>
+  <si>
+    <t>265.00</t>
+  </si>
+  <si>
+    <t>265.0000</t>
+  </si>
+  <si>
+    <t>CEREBROCETAM 1GM/5ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>COLLAGICA FORTE BOTTLE</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>54.4500</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>2:6</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>JACKODAN GEL 60 GM</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>KATIVAROX SYRUP</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>12.4800</t>
-  </si>
-  <si>
-    <t>AZADERM 20% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>66.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>BETAFOS 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>BETASERC 24MG 40 TABS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>218.00</t>
-  </si>
-  <si>
-    <t>109.0000</t>
-  </si>
-  <si>
-    <t>BRONCHOPHANE 125ML SYRUP.</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 400MG 30 TAB</t>
-  </si>
-  <si>
-    <t>25.7400</t>
-  </si>
-  <si>
-    <t>CALDIN ZINC SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CENTRUM WITH LUTEIN 30 TAB</t>
-  </si>
-  <si>
-    <t>265.00</t>
-  </si>
-  <si>
-    <t>265.0000</t>
-  </si>
-  <si>
-    <t>CEREBROCETAM 1GM/5ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>CEVA-FRESH TAB</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>COLLAGICA FORTE BOTTLE</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>250.0000</t>
-  </si>
-  <si>
-    <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>54.4500</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>DULOXEPRIN 30MG 28 CAPSULES</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>2:6</t>
-  </si>
-  <si>
-    <t>3.8400</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>JACKODAN GEL 60 GM</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>KATIVAROX SYRUP</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
   </si>
   <si>
     <t>LUNNER CREAM 50 GM</t>
@@ -434,6 +455,15 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>OMEGA ZAD SYURP 100 ML</t>
   </si>
   <si>
@@ -608,12 +638,6 @@
     <t>16:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -632,7 +656,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>سكاته بوب تون</t>
@@ -665,7 +689,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 5:19 PM</t>
+    <t>Saturday, 14 June, 2025 5:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1966,7 +1990,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1999,7 +2023,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2032,24 +2056,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2058,31 +2082,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2098,7 +2122,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2108,14 +2132,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2124,14 +2148,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2141,14 +2165,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2157,14 +2181,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2174,14 +2198,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2197,7 +2221,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2207,14 +2231,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2223,14 +2247,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2263,7 +2287,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2273,14 +2297,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2289,14 +2313,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2306,14 +2330,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2329,7 +2353,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2362,7 +2386,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2401,7 +2425,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2428,24 +2452,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2454,14 +2478,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2471,14 +2495,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2487,14 +2511,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2504,7 +2528,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2520,14 +2544,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2537,14 +2561,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2553,14 +2577,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2570,14 +2594,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2586,14 +2610,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2619,14 +2643,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2636,11 +2660,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2652,14 +2676,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2669,11 +2693,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2685,14 +2709,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2702,11 +2726,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>140</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2718,14 +2742,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2735,11 +2759,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2751,14 +2775,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2768,14 +2792,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2784,14 +2808,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2801,14 +2825,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2817,14 +2841,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>148</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2834,14 +2858,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2850,31 +2874,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2900,11 +2924,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2916,14 +2940,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2933,14 +2957,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2962,7 +2986,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3006,7 +3030,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3022,7 +3046,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3032,14 +3056,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3055,7 +3079,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3065,14 +3089,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3081,14 +3105,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3098,11 +3122,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3114,14 +3138,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3131,11 +3155,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3147,14 +3171,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3164,11 +3188,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>83</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3180,14 +3204,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3197,14 +3221,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3213,14 +3237,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3230,14 +3254,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3246,14 +3270,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3267,7 +3291,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3279,14 +3303,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3296,11 +3320,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3312,31 +3336,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3345,28 +3369,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3378,31 +3402,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3411,14 +3435,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3428,11 +3452,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3444,14 +3468,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3461,14 +3485,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>207</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3477,7 +3501,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3494,11 +3518,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3510,14 +3534,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3527,14 +3551,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>43</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>55</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3543,14 +3567,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3560,14 +3584,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>215</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3576,7 +3600,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3593,11 +3617,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3609,14 +3633,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3626,49 +3650,148 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q77" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>220</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>12</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>58</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>221</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>222</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>26</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>58</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>221</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>223</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>224</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>58</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>38</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q80" s="12">
         <v>57</v>
       </c>
     </row>
-    <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>3993.6350000000002</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
-        <v>218</v>
-      </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
-        <v>219</v>
-      </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
-        <v>220</v>
-      </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>4056.2649999999999</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>226</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>227</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>228</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4032,10 +4155,25 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -218,12 +218,15 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>26:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -368,9 +371,6 @@
     <t>45.00</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>JACKODAN GEL 60 GM</t>
   </si>
   <si>
@@ -431,6 +431,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
   </si>
   <si>
@@ -440,9 +452,6 @@
     <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>39.0000</t>
   </si>
   <si>
@@ -656,7 +665,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سكاته بوب تون</t>
@@ -689,7 +701,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 5:52 PM</t>
+    <t>Saturday, 14 June, 2025 6:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1839,10 +1851,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1851,14 +1863,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1868,14 +1880,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1884,7 +1896,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1901,11 +1913,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1917,7 +1929,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1934,11 +1946,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1950,7 +1962,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1967,11 +1979,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1983,14 +1995,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2000,11 +2012,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2016,7 +2028,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2033,11 +2045,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2049,7 +2061,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2066,11 +2078,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2082,7 +2094,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2103,10 +2115,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2115,14 +2127,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2136,7 +2148,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2148,7 +2160,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2165,11 +2177,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>34</v>
@@ -2181,7 +2193,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2202,7 +2214,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2214,7 +2226,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2231,11 +2243,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2247,14 +2259,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2264,11 +2276,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2280,7 +2292,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2297,11 +2309,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2313,14 +2325,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2334,7 +2346,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2346,7 +2358,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2363,11 +2375,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2379,14 +2391,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2396,14 +2408,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2532,7 +2544,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2598,7 +2610,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2683,7 +2695,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2693,14 +2705,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2709,14 +2721,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2726,14 +2738,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2742,7 +2754,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2792,14 +2804,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2815,7 +2827,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2825,14 +2837,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2848,7 +2860,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2881,7 +2893,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2891,11 +2903,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2907,14 +2919,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2924,14 +2936,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2940,14 +2952,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2957,11 +2969,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2973,28 +2985,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3006,20 +3018,20 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3046,7 +3058,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3056,14 +3068,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3089,14 +3101,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>175</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3129,7 +3141,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3145,7 +3157,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3188,11 +3200,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3221,11 +3233,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3244,7 +3256,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3254,11 +3266,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3270,14 +3282,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3291,7 +3303,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3303,14 +3315,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3343,7 +3355,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3353,14 +3365,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3369,14 +3381,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3386,14 +3398,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3426,7 +3438,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3442,24 +3454,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3468,14 +3480,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3485,11 +3497,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3518,11 +3530,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3555,7 +3567,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3567,7 +3579,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3584,14 +3596,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>215</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3600,7 +3612,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3617,14 +3629,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>219</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3650,14 +3662,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3666,14 +3678,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3683,14 +3695,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3716,11 +3728,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3749,49 +3761,82 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>38</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q80" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>227</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>228</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>58</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>38</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>57</v>
       </c>
     </row>
-    <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4056.2649999999999</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>226</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>227</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>228</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>4149.1350000000002</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>230</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>231</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>232</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4170,10 +4215,15 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -122,6 +122,15 @@
     <t>109.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BRONCHOPHANE 125ML SYRUP.</t>
   </si>
   <si>
@@ -401,6 +410,9 @@
     <t>18.00</t>
   </si>
   <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -656,6 +668,18 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -701,7 +725,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 6:02 PM</t>
+    <t>Saturday, 14 June, 2025 6:05 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1540,7 +1564,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1557,7 +1581,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1573,7 +1597,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1583,14 +1607,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1599,14 +1623,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1616,14 +1640,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1639,7 +1663,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1649,11 +1673,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1665,14 +1689,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1705,7 +1729,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1715,11 +1739,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1731,28 +1755,28 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>12</v>
@@ -1764,28 +1788,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1797,31 +1821,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1847,14 +1871,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1863,14 +1887,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1880,14 +1904,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1896,14 +1920,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1920,7 +1944,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1936,7 +1960,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1953,7 +1977,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1969,7 +1993,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1986,7 +2010,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2002,7 +2026,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2035,7 +2059,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2068,7 +2092,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2101,24 +2125,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2127,31 +2151,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2167,7 +2191,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2177,14 +2201,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2193,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2210,14 +2234,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2226,14 +2250,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2243,14 +2267,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2266,7 +2290,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2276,14 +2300,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2292,14 +2316,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2332,7 +2356,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2342,14 +2366,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2358,14 +2382,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2375,14 +2399,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2398,7 +2422,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2412,10 +2436,10 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2424,14 +2448,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2441,14 +2465,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2470,7 +2494,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2497,24 +2521,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>60</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2523,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2540,14 +2564,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2556,14 +2580,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2580,7 +2604,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2596,7 +2620,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2606,14 +2630,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2622,14 +2646,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2639,11 +2663,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2655,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2672,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2688,14 +2712,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2728,7 +2752,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2738,14 +2762,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2754,14 +2778,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2771,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2787,7 +2811,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2804,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2820,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2837,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>27</v>
+        <v>146</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2853,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2870,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2886,14 +2910,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2903,11 +2927,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2919,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2936,11 +2960,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2952,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2969,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2985,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3002,7 +3026,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3031,7 +3055,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3058,21 +3082,21 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3084,14 +3108,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3101,14 +3125,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3117,14 +3141,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3134,14 +3158,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>57</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3157,7 +3181,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3167,14 +3191,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3183,14 +3207,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3200,11 +3224,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3216,7 +3240,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3233,11 +3257,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3249,14 +3273,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3266,11 +3290,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3282,14 +3306,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3322,7 +3346,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3332,11 +3356,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3348,14 +3372,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3365,14 +3389,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3381,14 +3405,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3405,7 +3429,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,7 +3462,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3454,7 +3478,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3464,14 +3488,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3480,31 +3504,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3513,28 +3537,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3546,28 +3570,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3579,7 +3603,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3592,15 +3616,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3612,31 +3636,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>219</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3645,7 +3669,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3658,15 +3682,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3678,31 +3702,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>55</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>227</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3711,28 +3735,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3744,31 +3768,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>173</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3777,66 +3801,132 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>57</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>4149.1350000000002</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>230</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>231</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>232</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>234</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>26</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>61</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>233</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>235</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>236</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>61</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>41</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>237</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4203.8649999999998</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
+        <v>238</v>
+      </c>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>239</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>240</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4220,10 +4310,20 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>250.0000</t>
   </si>
   <si>
+    <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 5/12.5MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -416,9 +428,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -521,9 +530,6 @@
     <t>6:3</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -725,7 +731,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 6:05 PM</t>
+    <t>Saturday, 14 June, 2025 6:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1871,11 +1877,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1887,14 +1893,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1904,14 +1910,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1944,7 +1950,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1960,7 +1966,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1970,14 +1976,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1986,14 +1992,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2003,14 +2009,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2019,14 +2025,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2036,14 +2042,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2052,14 +2058,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2069,11 +2075,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2085,14 +2091,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2102,11 +2108,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2118,14 +2124,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2135,11 +2141,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2151,31 +2157,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2184,31 +2190,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2217,14 +2223,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2234,14 +2240,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2250,14 +2256,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2267,14 +2273,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2283,14 +2289,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2300,14 +2306,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2316,14 +2322,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2340,7 +2346,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2356,7 +2362,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2366,11 +2372,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2382,14 +2388,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2399,14 +2405,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2415,14 +2421,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2432,14 +2438,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2448,14 +2454,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2465,14 +2471,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2481,14 +2487,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2498,14 +2504,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,7 +2520,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2527,15 +2533,15 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2547,31 +2553,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2580,14 +2586,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,14 +2603,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2613,14 +2619,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2637,7 +2643,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2653,7 +2659,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2667,10 +2673,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,11 +2702,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2712,14 +2718,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2729,14 +2735,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2752,7 +2758,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2762,11 +2768,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2778,14 +2784,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2801,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2811,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2834,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,7 +2850,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2861,14 +2867,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2877,14 +2883,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2900,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2917,7 +2923,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,14 +2933,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2950,7 +2956,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2983,7 +2989,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,11 +2999,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3009,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3026,14 +3032,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3042,14 +3048,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,11 +3065,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3075,28 +3081,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3108,28 +3114,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3141,14 +3147,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3164,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3180,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,14 +3197,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>57</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3207,14 +3213,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,14 +3230,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3240,14 +3246,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3257,11 +3263,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3273,7 +3279,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3290,11 +3296,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,11 +3329,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3339,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3356,11 +3362,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>12</v>
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,11 +3395,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3412,7 +3418,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3426,10 +3432,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3438,14 +3444,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3455,14 +3461,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,14 +3477,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3488,14 +3494,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,14 +3527,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3537,31 +3543,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>87</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3587,11 +3593,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3610,7 +3616,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,11 +3626,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3636,14 +3642,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,11 +3659,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3669,14 +3675,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,11 +3692,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3719,14 +3725,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>227</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3735,7 +3741,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3752,14 +3758,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3775,7 +3781,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3785,14 +3791,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3808,7 +3814,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,14 +3824,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>46</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3841,7 +3847,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,11 +3857,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3867,14 +3873,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>236</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3884,49 +3890,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>237</v>
       </c>
-      <c t="s" r="Q83" s="12">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>238</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>61</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>41</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q84" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4203.8649999999998</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>238</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>239</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4239.5050000000001</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
         <v>240</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>241</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>242</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4320,10 +4359,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -731,7 +731,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 6:08 PM</t>
+    <t>Saturday, 14 June, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -707,6 +707,12 @@
     <t>25.00</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">فاميليا مناديل </t>
   </si>
   <si>
@@ -722,6 +728,15 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>ماسك صنفره بوبانا</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -731,7 +746,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 6:11 PM</t>
+    <t>Saturday, 14 June, 2025 6:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3828,10 +3843,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3847,7 +3862,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3857,14 +3872,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>46</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3880,7 +3895,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3890,7 +3905,7 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
@@ -3906,14 +3921,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3923,49 +3938,115 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>41</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>239</v>
       </c>
-      <c t="s" r="Q84" s="12">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>12</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>61</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>240</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>242</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>243</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>61</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>41</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>60</v>
       </c>
     </row>
-    <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4239.5050000000001</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>240</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>241</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>242</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4334.5050000000001</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>245</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>246</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>247</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4364,10 +4445,20 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -746,7 +746,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 6:12 PM</t>
+    <t>Saturday, 14 June, 2025 6:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -746,7 +746,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 6:15 PM</t>
+    <t>Saturday, 14 June, 2025 6:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>AMIGRAINE ADCO 30 TABLETS</t>
+  </si>
+  <si>
+    <t>11:2</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>93.0000</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -203,6 +215,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CIDAMEX 250MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>COLLAGICA FORTE BOTTLE</t>
   </si>
   <si>
@@ -272,12 +293,6 @@
     <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -476,6 +491,15 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -563,6 +587,18 @@
     <t>6.7200</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
     <t>SILVIRBURN CREAM 250 GM</t>
   </si>
   <si>
@@ -746,7 +782,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 6:18 PM</t>
+    <t>Saturday, 14 June, 2025 6:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1470,7 +1506,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1503,7 +1539,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1569,7 +1605,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1585,7 +1621,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1595,11 +1631,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1611,14 +1647,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1628,14 +1664,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1644,7 +1680,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1661,14 +1697,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1677,14 +1713,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1694,14 +1730,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1710,14 +1746,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1750,7 +1786,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1760,11 +1796,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1776,14 +1812,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1822,15 +1858,15 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1842,20 +1878,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1882,7 +1918,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1892,14 +1928,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1908,31 +1944,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1965,7 +2001,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1991,14 +2027,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2007,14 +2043,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2031,7 +2067,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2047,7 +2083,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2057,14 +2093,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2073,14 +2109,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2090,11 +2126,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2106,14 +2142,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2123,14 +2159,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2139,14 +2175,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2156,11 +2192,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2172,14 +2208,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2189,11 +2225,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2205,31 +2241,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2245,7 +2281,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2255,7 +2291,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2278,24 +2314,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2311,7 +2347,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2321,14 +2357,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2337,7 +2373,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2354,14 +2390,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2377,7 +2413,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2387,11 +2423,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2403,14 +2439,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2420,14 +2456,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2436,14 +2472,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2453,14 +2489,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2476,7 +2512,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2509,7 +2545,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2519,14 +2555,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2542,7 +2578,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2575,13 +2611,13 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2589,10 +2625,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2601,14 +2637,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2618,14 +2654,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2641,13 +2677,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2658,7 +2694,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2674,7 +2710,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2684,11 +2720,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2700,14 +2736,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2717,14 +2753,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2740,7 +2776,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2750,14 +2786,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2766,14 +2802,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2783,14 +2819,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2799,14 +2835,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2816,14 +2852,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2832,14 +2868,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2849,14 +2885,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2872,7 +2908,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2882,11 +2918,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2898,14 +2934,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2915,11 +2951,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>154</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -2931,14 +2967,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2948,11 +2984,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2971,7 +3007,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2981,11 +3017,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2997,14 +3033,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3014,11 +3050,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3030,14 +3066,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3047,14 +3083,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3063,14 +3099,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3080,14 +3116,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3096,14 +3132,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3113,14 +3149,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3129,31 +3165,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>173</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3162,7 +3198,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3179,11 +3215,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3195,14 +3231,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3212,14 +3248,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3228,28 +3264,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3261,7 +3297,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3278,14 +3314,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3294,14 +3330,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>186</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3311,14 +3347,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>61</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3327,14 +3363,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3344,14 +3380,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3360,14 +3396,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3377,14 +3413,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3393,14 +3429,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3410,11 +3446,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>12</v>
@@ -3426,7 +3462,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3443,11 +3479,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3459,14 +3495,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3476,14 +3512,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3499,7 +3535,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3509,14 +3545,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3525,14 +3561,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3542,11 +3578,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3558,14 +3594,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3575,14 +3611,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3591,31 +3627,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>91</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3624,31 +3660,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3657,28 +3693,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3690,31 +3726,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3723,28 +3759,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>227</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3756,31 +3792,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>229</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3796,13 +3832,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -3810,7 +3846,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3822,28 +3858,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>47</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3855,31 +3891,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>58</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3888,31 +3924,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>241</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3921,28 +3957,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3954,28 +3990,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -3987,66 +4023,198 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4334.5050000000001</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
-        <v>245</v>
-      </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>246</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>247</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>248</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>12</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>65</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>249</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>250</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>30</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>65</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>249</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>251</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>12</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>65</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>252</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>254</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>255</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>65</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>45</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>256</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4533.5550000000003</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>257</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>258</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>259</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4455,10 +4623,30 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -782,7 +782,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 6:21 PM</t>
+    <t>Saturday, 14 June, 2025 6:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -575,6 +575,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -629,6 +635,12 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -671,9 +683,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -782,7 +791,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 6:36 PM</t>
+    <t>Saturday, 14 June, 2025 6:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3370,7 +3379,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3380,11 +3389,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3396,14 +3405,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3413,11 +3422,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3429,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3446,14 +3455,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3462,14 +3471,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3479,11 +3488,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3495,7 +3504,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3512,11 +3521,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>12</v>
@@ -3528,14 +3537,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3545,11 +3554,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3561,14 +3570,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3578,11 +3587,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3594,14 +3603,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3611,11 +3620,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>211</v>
+        <v>35</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>216</v>
+        <v>34</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3677,14 +3686,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3693,14 +3702,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3710,14 +3719,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3743,14 +3752,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3759,28 +3768,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3792,31 +3801,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3842,11 +3851,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3875,11 +3884,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3891,7 +3900,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3908,11 +3917,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3924,14 +3933,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>30</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3941,14 +3950,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>241</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3957,7 +3966,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3974,11 +3983,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -3990,14 +3999,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4007,14 +4016,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>51</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4023,14 +4032,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4040,14 +4049,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>50</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4056,14 +4065,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4073,11 +4082,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4089,14 +4098,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4106,14 +4115,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4143,7 +4152,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4155,14 +4164,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4172,49 +4181,115 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>254</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>12</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>65</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>255</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
         <v>256</v>
       </c>
-      <c t="s" r="Q90" s="12">
+      <c t="s" r="Q91" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>257</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>258</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>65</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>45</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q92" s="12">
         <v>64</v>
       </c>
     </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4533.5550000000003</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>257</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>258</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>259</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>4579.4049999999997</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>260</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>261</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>262</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4643,10 +4718,20 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -566,6 +566,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
@@ -623,6 +632,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>TAVACIN 750MG 5 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -683,10 +701,10 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>192.0000</t>
   </si>
   <si>
     <t>ZYRTEC 10MG 20 TAB</t>
@@ -716,7 +734,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>حلمة ببرونه</t>
@@ -755,9 +773,6 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">فاميليا مناديل </t>
   </si>
   <si>
@@ -791,7 +806,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 6:37 PM</t>
+    <t>Saturday, 14 June, 2025 6:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3346,7 +3361,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3356,14 +3371,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>61</v>
+        <v>186</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3379,7 +3394,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,14 +3404,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3405,14 +3420,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,11 +3437,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3438,14 +3453,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3455,11 +3470,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3471,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3495,7 +3510,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3511,7 +3526,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3554,11 +3569,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3570,14 +3585,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3587,11 +3602,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3603,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3620,11 +3635,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3636,14 +3651,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>211</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3676,7 +3691,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3686,11 +3701,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>215</v>
+        <v>35</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3709,7 +3724,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3719,14 +3734,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3735,14 +3750,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3756,10 +3771,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3768,14 +3783,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3785,14 +3800,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3801,14 +3816,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3825,7 +3840,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3847,18 +3862,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>96</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3867,31 +3882,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3900,14 +3915,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>30</v>
+        <v>236</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3917,11 +3932,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3933,14 +3948,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3950,11 +3965,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>238</v>
+        <v>167</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3966,7 +3981,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -3983,14 +3998,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4006,7 +4021,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4016,14 +4031,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>244</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4032,7 +4047,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4049,11 +4064,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4065,14 +4080,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4082,14 +4097,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>50</v>
+        <v>227</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>51</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4098,14 +4113,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4115,14 +4130,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>50</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4131,14 +4146,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4148,11 +4163,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>187</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4164,14 +4179,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4181,14 +4196,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>252</v>
+        <v>50</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>187</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4197,7 +4212,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4214,11 +4229,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>256</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4230,14 +4245,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>258</v>
+        <v>30</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4247,49 +4262,115 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>45</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
         <v>259</v>
       </c>
-      <c t="s" r="Q92" s="12">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>12</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>65</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>260</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>262</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>263</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>65</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>45</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>64</v>
       </c>
     </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>4579.4049999999997</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>260</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>261</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>262</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4800.1750000000002</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>265</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>266</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>267</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4728,10 +4809,20 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -806,7 +806,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 6:47 PM</t>
+    <t>Saturday, 14 June, 2025 6:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -365,6 +365,12 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -435,9 +441,6 @@
   </si>
   <si>
     <t>18.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
   </si>
   <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
@@ -2503,7 +2506,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2513,11 +2516,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2529,14 +2532,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2546,11 +2549,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2562,14 +2565,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2579,14 +2582,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2602,7 +2605,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2612,14 +2615,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2628,14 +2631,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2645,14 +2648,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2668,7 +2671,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2682,10 +2685,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2694,7 +2697,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2707,15 +2710,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2727,31 +2730,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2767,7 +2770,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2777,14 +2780,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2793,14 +2796,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2810,14 +2813,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2826,14 +2829,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2843,14 +2846,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2859,14 +2862,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2876,11 +2879,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2899,7 +2902,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2909,14 +2912,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2925,14 +2928,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2942,11 +2945,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2958,14 +2961,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2975,14 +2978,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2998,7 +3001,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3008,14 +3011,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3041,14 +3044,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3057,14 +3060,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3074,11 +3077,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3090,14 +3093,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3107,14 +3110,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3123,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>165</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3140,14 +3143,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3156,14 +3159,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3173,11 +3176,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>12</v>
@@ -3189,14 +3192,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3206,11 +3209,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>45</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3229,7 +3232,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3239,14 +3242,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3255,14 +3258,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3272,11 +3275,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3288,28 +3291,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3321,28 +3324,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3354,14 +3357,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3371,11 +3374,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3387,14 +3390,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,14 +3407,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3420,14 +3423,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3437,14 +3440,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3453,14 +3456,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3470,11 +3473,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3486,14 +3489,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,11 +3506,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3519,14 +3522,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,14 +3539,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3552,14 +3555,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,11 +3572,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3585,14 +3588,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,11 +3605,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3618,14 +3621,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3635,11 +3638,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3658,7 +3661,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,11 +3671,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3684,14 +3687,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>215</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3701,11 +3704,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>35</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3717,14 +3720,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3734,11 +3737,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>218</v>
+        <v>35</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3750,14 +3753,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>34</v>
+        <v>218</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,11 +3770,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3783,14 +3786,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,14 +3803,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3816,14 +3819,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3833,14 +3836,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3849,14 +3852,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3866,11 +3869,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>34</v>
@@ -3882,14 +3885,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>231</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3899,14 +3902,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3915,31 +3918,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3948,14 +3951,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3965,11 +3968,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>12</v>
@@ -3981,14 +3984,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>30</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3998,14 +4001,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4014,14 +4017,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>243</v>
+        <v>30</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4031,14 +4034,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4047,14 +4050,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4064,11 +4067,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4080,7 +4083,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4097,14 +4100,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>250</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4113,7 +4116,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4130,14 +4133,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>251</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4146,14 +4149,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>230</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4163,11 +4166,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>50</v>
+        <v>253</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>51</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>12</v>
@@ -4186,7 +4189,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4200,10 +4203,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4212,14 +4215,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4229,14 +4232,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>190</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4245,14 +4248,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4262,11 +4265,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4285,7 +4288,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4295,11 +4298,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4311,14 +4314,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4328,49 +4331,82 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>263</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
         <v>264</v>
       </c>
-      <c t="s" r="Q94" s="12">
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>65</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>45</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q95" s="12">
         <v>64</v>
       </c>
     </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4800.1750000000002</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>265</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4836.1750000000002</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
         <v>266</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
         <v>267</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>268</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4819,10 +4855,15 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -809,7 +809,7 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 6:53 PM</t>
+    <t>Saturday, 14 June, 2025 6:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -200,15 +200,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>CERELAC تمر وقمح ولبن</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -809,7 +812,13 @@
     <t>72.0000</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 6:55 PM</t>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>معجون سيجنال اطفال 50 ملل</t>
+  </si>
+  <si>
+    <t>Saturday, 14 June, 2025 7:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1912,21 +1921,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1938,28 +1947,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -1971,28 +1980,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2004,31 +2013,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2037,14 +2046,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2054,11 +2063,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2070,14 +2079,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2087,14 +2096,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2103,14 +2112,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2120,14 +2129,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2136,14 +2145,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2153,14 +2162,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2169,14 +2178,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2186,14 +2195,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2209,7 +2218,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2219,14 +2228,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2252,11 +2261,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2268,14 +2277,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2285,11 +2294,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2301,14 +2310,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2318,11 +2327,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2334,31 +2343,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2367,31 +2376,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2400,14 +2409,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2417,14 +2426,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2450,14 +2459,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2466,14 +2475,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2483,14 +2492,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2499,14 +2508,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2516,14 +2525,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2532,14 +2541,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2549,11 +2558,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2582,11 +2591,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2615,14 +2624,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2631,14 +2640,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2648,14 +2657,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2664,14 +2673,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2681,14 +2690,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2697,14 +2706,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2714,14 +2723,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2730,7 +2739,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2743,15 +2752,15 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2763,31 +2772,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2829,14 +2838,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2846,14 +2855,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2862,14 +2871,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2879,14 +2888,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2895,14 +2904,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2912,11 +2921,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2935,7 +2944,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2978,11 +2987,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2994,14 +3003,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3011,14 +3020,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>35</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>36</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3034,7 +3043,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3044,14 +3053,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3077,14 +3086,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>155</v>
+        <v>61</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3110,11 +3119,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3126,14 +3135,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>165</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3143,14 +3152,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3159,14 +3168,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3176,14 +3185,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3192,14 +3201,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3209,11 +3218,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>12</v>
@@ -3225,14 +3234,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3242,11 +3251,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>45</v>
+        <v>172</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>46</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>12</v>
@@ -3265,7 +3274,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3275,14 +3284,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3291,14 +3300,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3308,11 +3317,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3324,28 +3333,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3357,28 +3366,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>184</v>
+        <v>78</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3390,14 +3399,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3407,11 +3416,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3423,14 +3432,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3440,14 +3449,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>72</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3456,14 +3465,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3473,14 +3482,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3489,14 +3498,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3506,11 +3515,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3522,14 +3531,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3539,11 +3548,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3572,14 +3581,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3605,11 +3614,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3621,14 +3630,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3638,11 +3647,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3654,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3671,11 +3680,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3694,7 +3703,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3704,11 +3713,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3720,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3737,11 +3746,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3753,14 +3762,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3770,11 +3779,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3786,14 +3795,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3803,11 +3812,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3819,14 +3828,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3836,14 +3845,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3902,11 +3911,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>34</v>
@@ -3918,14 +3927,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3935,14 +3944,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3951,31 +3960,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>96</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3984,28 +3993,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4017,31 +4026,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4050,31 +4059,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4083,28 +4092,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4116,7 +4125,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4129,18 +4138,18 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>251</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4149,7 +4158,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4162,18 +4171,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4182,28 +4191,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>51</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4222,13 +4231,13 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4236,10 +4245,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4248,31 +4257,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>50</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4281,28 +4290,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4321,24 +4330,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4347,66 +4356,165 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>45</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>264</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
         <v>265</v>
       </c>
-      <c t="s" r="Q95" s="12">
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
         <v>64</v>
       </c>
-    </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4836.1750000000002</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>45</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
         <v>266</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c t="s" r="Q96" s="12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>267</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>257</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>64</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>169</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>170</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>268</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>30</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>64</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>262</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>4996.1750000000002</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>269</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>270</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>271</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4860,10 +4968,25 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -599,7 +599,7 @@
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
-    <t>0:5</t>
+    <t>5:5</t>
   </si>
   <si>
     <t>42.00</t>
@@ -818,7 +818,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 7:03 PM</t>
+    <t>Saturday, 14 June, 2025 7:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2680,7 +2680,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3406,7 +3406,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -353,6 +353,15 @@
     <t>270.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -716,9 +725,6 @@
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -764,10 +770,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
+    <t>34.0000</t>
+  </si>
+  <si>
+    <t>17:0</t>
   </si>
   <si>
     <t>سكاته بوب تون</t>
@@ -818,7 +824,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 7:28 PM</t>
+    <t>Saturday, 14 June, 2025 7:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2482,7 +2488,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2492,11 +2498,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2508,14 +2514,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2525,14 +2531,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2548,7 +2554,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2558,14 +2564,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2574,14 +2580,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2591,11 +2597,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2607,14 +2613,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2647,7 +2653,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2657,14 +2663,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2673,14 +2679,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2690,14 +2696,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2713,7 +2719,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2727,10 +2733,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2739,14 +2745,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2756,14 +2762,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2785,7 +2791,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2812,24 +2818,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2838,14 +2844,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2855,14 +2861,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2871,14 +2877,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2888,14 +2894,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2911,7 +2917,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2925,10 +2931,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2937,14 +2943,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2954,11 +2960,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2970,14 +2976,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2987,14 +2993,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3010,7 +3016,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3020,11 +3026,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3036,14 +3042,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3053,14 +3059,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3069,14 +3075,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3086,14 +3092,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3102,7 +3108,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3119,14 +3125,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3135,14 +3141,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3152,7 +3158,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3175,7 +3181,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3185,14 +3191,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3208,7 +3214,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3218,14 +3224,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3241,7 +3247,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3274,7 +3280,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3284,11 +3290,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3300,14 +3306,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3317,14 +3323,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3333,14 +3339,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3350,11 +3356,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3366,24 +3372,24 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3406,17 +3412,17 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3439,7 +3445,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3472,7 +3478,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,14 +3488,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3505,7 +3511,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3515,14 +3521,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3531,14 +3537,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3548,11 +3554,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3564,14 +3570,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3581,11 +3587,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3597,14 +3603,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3621,7 +3627,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3637,7 +3643,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3670,7 +3676,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3703,7 +3709,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3713,11 +3719,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3729,14 +3735,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3746,11 +3752,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3769,7 +3775,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>217</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3779,11 +3785,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3795,14 +3801,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3812,11 +3818,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3828,14 +3834,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3849,7 +3855,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>97</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3861,14 +3867,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3878,14 +3884,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3901,7 +3907,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3911,14 +3917,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3927,14 +3933,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3944,7 +3950,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -3967,7 +3973,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3977,14 +3983,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4000,24 +4006,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4043,11 +4049,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4066,7 +4072,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4076,14 +4082,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>172</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4092,14 +4098,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>30</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4109,14 +4115,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4125,14 +4131,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4142,11 +4148,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4175,14 +4181,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>252</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4191,7 +4197,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4208,14 +4214,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>153</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>254</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4231,7 +4237,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4241,11 +4247,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>50</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>51</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4257,14 +4263,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4278,10 +4284,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4297,7 +4303,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4307,14 +4313,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4330,7 +4336,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4340,14 +4346,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4356,14 +4362,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4373,14 +4379,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4389,14 +4395,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4406,14 +4412,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4422,14 +4428,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4439,14 +4445,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>169</v>
+        <v>45</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4455,14 +4461,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4472,49 +4478,82 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>4996.1750000000002</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>269</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>270</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>30</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>64</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>264</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5102.1750000000002</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
         <v>271</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>272</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>273</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4983,10 +5022,15 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -824,7 +824,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 7:41 PM</t>
+    <t>Saturday, 14 June, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -824,7 +824,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 7:42 PM</t>
+    <t>Saturday, 14 June, 2025 7:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -353,378 +353,372 @@
     <t>270.0000</t>
   </si>
   <si>
-    <t>FEROGLOBIN LIQUID 120 ML</t>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FUSI-ZON CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>JACKODAN GEL 60 GM</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>KATIVAROX SYRUP</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LUNNER CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>1:5</t>
+  </si>
+  <si>
+    <t>10.5600</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OMEGA ZAD SYURP 100 ML</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>ORACURE ORAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>ORLY 120MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>79.2000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PETRO 30 TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>PURGATON 20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:5</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:13</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SILVIRBURN CREAM 250 GM</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>TAVACIN 750MG 5 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8671:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
     <t>100.00</t>
   </si>
   <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>87.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FUSI-ZON CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>21.7800</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>JACKODAN GEL 60 GM</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>KATIVAROX SYRUP</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LUNNER CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
-  </si>
-  <si>
-    <t>MOVEASY 5 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>NANAZOXID 100MG/5ML PD. FOR ORAL SUSP. 60 ML</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>NEUROTON 6 AMP</t>
-  </si>
-  <si>
-    <t>1:5</t>
-  </si>
-  <si>
-    <t>10.5600</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OMEGA ZAD SYURP 100 ML</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>ORACURE ORAL GEL 30 GM</t>
-  </si>
-  <si>
-    <t>ORLY 120MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>79.2000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>6:3</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PETRO 30 TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>PURGATON 20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>14.8500</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:5</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:13</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SILVIRBURN CREAM 250 GM</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>STARVILLE WHITENING ANTIPRESPIRANT ROLL-ON 60 ML</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>TAVACIN 750MG 5 TAB</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8671:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
@@ -824,7 +818,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 7:45 PM</t>
+    <t>Saturday, 14 June, 2025 7:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2488,7 +2482,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2498,11 +2492,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2514,14 +2508,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2531,14 +2525,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2554,7 +2548,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2564,14 +2558,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2580,14 +2574,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2597,11 +2591,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2613,14 +2607,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2653,7 +2647,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2663,14 +2657,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2679,14 +2673,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2696,14 +2690,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2719,7 +2713,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2733,10 +2727,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2745,14 +2739,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2762,14 +2756,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2791,7 +2785,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2818,24 +2812,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2844,14 +2838,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2861,14 +2855,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>61</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2877,14 +2871,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2894,14 +2888,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2917,7 +2911,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2931,10 +2925,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2943,14 +2937,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2960,11 +2954,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2976,14 +2970,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2993,14 +2987,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3016,7 +3010,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3026,11 +3020,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3042,14 +3036,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3059,14 +3053,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>35</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3075,14 +3069,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3092,14 +3086,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3108,7 +3102,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3125,14 +3119,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>61</v>
+        <v>156</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3141,14 +3135,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3158,7 +3152,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3181,7 +3175,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3191,14 +3185,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3214,7 +3208,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>169</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3224,14 +3218,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3247,7 +3241,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3280,7 +3274,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3290,11 +3284,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3306,14 +3300,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3323,14 +3317,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3339,14 +3333,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3356,11 +3350,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3372,24 +3366,24 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3412,17 +3406,17 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>185</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3445,7 +3439,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3478,7 +3472,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3488,14 +3482,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>61</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3511,7 +3505,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3521,14 +3515,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3537,14 +3531,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>196</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3554,11 +3548,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3570,14 +3564,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3587,11 +3581,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3603,14 +3597,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3627,7 +3621,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3643,7 +3637,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3676,7 +3670,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3709,7 +3703,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3719,11 +3713,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3735,14 +3729,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3752,11 +3746,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3775,7 +3769,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3785,11 +3779,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>35</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3801,14 +3795,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3818,11 +3812,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3834,14 +3828,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3855,7 +3849,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3867,14 +3861,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>34</v>
+        <v>191</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3884,14 +3878,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3907,7 +3901,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3917,14 +3911,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3933,14 +3927,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3950,7 +3944,7 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
@@ -3973,7 +3967,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3983,14 +3977,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4006,24 +4000,24 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4049,11 +4043,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4072,7 +4066,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>242</v>
+        <v>30</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4082,14 +4076,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4098,14 +4092,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>30</v>
+        <v>245</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4115,14 +4109,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4131,14 +4125,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>247</v>
+        <v>30</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4148,11 +4142,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4181,14 +4175,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4197,7 +4191,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4214,14 +4208,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>254</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4237,7 +4231,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4247,11 +4241,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>50</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>156</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4263,14 +4257,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4284,10 +4278,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4303,7 +4297,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4313,14 +4307,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>62</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4336,7 +4330,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4346,14 +4340,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4362,14 +4356,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4379,14 +4373,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4395,14 +4389,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4412,14 +4406,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4428,14 +4422,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4445,14 +4439,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4461,14 +4455,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>259</v>
+        <v>30</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4478,82 +4472,49 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>172</v>
+        <v>262</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="A99" s="7">
-        <v>93</v>
-      </c>
-      <c r="B99" s="7"/>
-      <c t="s" r="C99" s="8">
+      <c r="P99" s="13">
+        <v>5002.1750000000002</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>269</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
         <v>270</v>
       </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c t="s" r="H99" s="9">
-        <v>30</v>
-      </c>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
-      <c t="s" r="L99" s="10">
-        <v>64</v>
-      </c>
-      <c r="M99" s="10"/>
-      <c t="s" r="N99" s="8">
-        <v>264</v>
-      </c>
-      <c r="O99" s="8"/>
-      <c t="s" r="P99" s="11">
-        <v>265</v>
-      </c>
-      <c t="s" r="Q99" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5102.1750000000002</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
         <v>271</v>
       </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>272</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>273</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5022,15 +4983,10 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="L99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -818,7 +818,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 7:49 PM</t>
+    <t>Saturday, 14 June, 2025 7:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -323,6 +323,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>DOLPHIN 3% TOPICAL GEL 30 GM</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DULOXEPRIN 30MG 28 CAPSULES</t>
   </si>
   <si>
@@ -647,6 +656,12 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>TEBONINA FORTE 40MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -762,9 +777,6 @@
   </si>
   <si>
     <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>34.0000</t>
   </si>
   <si>
     <t>17:0</t>
@@ -2350,7 +2362,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2367,7 +2379,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2383,24 +2395,24 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2409,31 +2421,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2449,7 +2461,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2459,14 +2471,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2492,14 +2504,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2508,14 +2520,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2525,14 +2537,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2548,7 +2560,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2558,14 +2570,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2574,14 +2586,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2591,11 +2603,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2607,14 +2619,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2647,7 +2659,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2657,14 +2669,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2690,14 +2702,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2713,7 +2725,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2727,10 +2739,10 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2756,14 +2768,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2785,7 +2797,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2812,24 +2824,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>30</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2855,14 +2867,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2871,14 +2883,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2888,14 +2900,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2911,7 +2923,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2925,10 +2937,10 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2937,14 +2949,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2954,11 +2966,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -2970,14 +2982,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2987,14 +2999,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>152</v>
+        <v>35</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3010,7 +3022,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3020,11 +3032,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>35</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3102,7 +3114,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3119,14 +3131,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3135,14 +3147,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3152,7 +3164,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3175,7 +3187,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3185,14 +3197,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>167</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3208,7 +3220,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3218,14 +3230,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3241,7 +3253,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3274,7 +3286,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3284,11 +3296,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3300,14 +3312,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3317,14 +3329,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>131</v>
+        <v>45</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3333,14 +3345,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3350,11 +3362,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3366,24 +3378,24 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3406,17 +3418,17 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>185</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3439,7 +3451,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3472,7 +3484,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,14 +3494,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>61</v>
+        <v>191</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3505,7 +3517,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3515,14 +3527,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3531,14 +3543,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3548,11 +3560,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>197</v>
+        <v>137</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3564,14 +3576,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3581,11 +3593,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3597,14 +3609,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>203</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3621,7 +3633,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3637,7 +3649,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3670,7 +3682,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3703,7 +3715,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3713,11 +3725,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3729,7 +3741,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3746,14 +3758,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>152</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3762,14 +3774,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>217</v>
+        <v>30</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3779,11 +3791,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3802,7 +3814,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3812,11 +3824,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3828,14 +3840,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>34</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3845,11 +3857,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3861,14 +3873,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3885,7 +3897,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3901,7 +3913,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>34</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3911,14 +3923,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3927,14 +3939,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3944,14 +3956,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3960,14 +3972,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3977,14 +3989,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3993,31 +4005,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>97</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4033,24 +4045,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4059,14 +4071,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4076,14 +4088,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4109,11 +4121,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4125,7 +4137,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4142,14 +4154,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4158,14 +4170,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4175,14 +4187,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>252</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4212,7 +4224,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4231,7 +4243,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>232</v>
+        <v>30</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4241,14 +4253,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>50</v>
+        <v>234</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4257,14 +4269,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>30</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4274,14 +4286,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>50</v>
+        <v>258</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4290,14 +4302,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4307,11 +4319,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>192</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4330,7 +4342,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4340,11 +4352,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>34</v>
@@ -4356,7 +4368,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4373,11 +4385,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4396,7 +4408,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>30</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4406,14 +4418,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>66</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4422,14 +4434,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4439,11 +4451,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4462,7 +4474,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>30</v>
+        <v>269</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4472,49 +4484,115 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>262</v>
+        <v>45</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5002.1750000000002</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>269</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>270</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
         <v>271</v>
       </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>261</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>64</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>172</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>272</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>30</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>64</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>266</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5081.1750000000002</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>273</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>274</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>275</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4983,10 +5061,20 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -341,6 +341,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>ERASTAPEX CO 10/40MG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -830,7 +839,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 7:54 PM</t>
+    <t>Saturday, 14 June, 2025 7:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2428,24 +2437,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2454,31 +2463,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2494,7 +2503,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2504,14 +2513,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2520,14 +2529,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2537,14 +2546,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2553,14 +2562,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2570,14 +2579,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2593,7 +2602,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2603,14 +2612,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2619,14 +2628,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2636,11 +2645,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2652,14 +2661,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>30</v>
+        <v>128</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2692,7 +2701,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2758,7 +2767,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2772,10 +2781,10 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2801,14 +2810,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2830,7 +2839,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2857,24 +2866,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2883,14 +2892,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2900,14 +2909,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2916,14 +2925,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2933,14 +2942,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2956,7 +2965,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2970,10 +2979,10 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2999,11 +3008,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>12</v>
@@ -3015,14 +3024,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3055,7 +3064,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3065,11 +3074,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3081,14 +3090,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3098,14 +3107,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3114,14 +3123,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3131,14 +3140,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3147,7 +3156,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3164,14 +3173,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>164</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3197,7 +3206,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3220,7 +3229,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3230,14 +3239,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>170</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3253,7 +3262,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>172</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3263,14 +3272,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3286,7 +3295,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3319,7 +3328,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3329,11 +3338,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3362,14 +3371,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>179</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3378,14 +3387,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3395,11 +3404,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3411,24 +3420,24 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3451,17 +3460,17 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>34</v>
+        <v>188</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3484,7 +3493,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3517,7 +3526,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3527,14 +3536,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>195</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3550,7 +3559,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3560,14 +3569,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3576,14 +3585,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3593,11 +3602,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3626,11 +3635,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3642,14 +3651,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3666,7 +3675,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3682,7 +3691,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3715,7 +3724,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3748,7 +3757,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3758,14 +3767,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3774,14 +3783,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3791,14 +3800,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3807,14 +3816,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3824,11 +3833,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3847,7 +3856,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3857,11 +3866,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>35</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>12</v>
@@ -3873,14 +3882,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3890,11 +3899,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3906,14 +3915,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3927,7 +3936,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>97</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>194</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3956,14 +3965,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3979,7 +3988,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3989,14 +3998,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4022,7 +4031,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4045,7 +4054,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4055,14 +4064,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4078,24 +4087,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>97</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4121,11 +4130,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>173</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4137,14 +4146,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4154,14 +4163,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4177,7 +4186,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4187,14 +4196,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4224,7 +4233,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4236,7 +4245,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4253,14 +4262,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>256</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4269,7 +4278,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4286,14 +4295,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4302,14 +4311,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4319,11 +4328,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>50</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4335,14 +4344,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4356,10 +4365,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4368,14 +4377,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4385,14 +4394,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>50</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4401,14 +4410,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4418,14 +4427,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>51</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4434,14 +4443,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4455,10 +4464,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>267</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4474,7 +4483,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4484,14 +4493,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4507,7 +4516,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4517,14 +4526,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4533,14 +4542,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4550,49 +4559,82 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>266</v>
+        <v>175</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5081.1750000000002</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>273</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>274</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
         <v>275</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>30</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>64</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>269</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5246.1750000000002</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>276</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>277</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>278</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5071,10 +5113,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>AMARYL 4 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>AMIGRAINE ADCO 30 TABLETS</t>
   </si>
   <si>
@@ -245,9 +254,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>35.6400</t>
   </si>
   <si>
@@ -341,6 +347,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>EMPACOZA 10 MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
     <t>ERASTAPEX CO 10/40MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -422,12 +437,6 @@
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -464,6 +473,15 @@
     <t>18.00</t>
   </si>
   <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -473,6 +491,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>LUNNER CREAM 50 GM</t>
   </si>
   <si>
@@ -659,9 +686,6 @@
     <t>TAVACIN 750MG 5 TAB</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -734,9 +758,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>192.0000</t>
-  </si>
-  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -839,7 +860,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 7:55 PM</t>
+    <t>Saturday, 14 June, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1546,7 +1567,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1556,11 +1577,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>12</v>
@@ -1572,14 +1593,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1589,14 +1610,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1605,14 +1626,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1622,14 +1643,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1638,14 +1659,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1655,11 +1676,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>12</v>
@@ -1671,14 +1692,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1688,14 +1709,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1704,14 +1725,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1744,7 +1765,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1761,7 +1782,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1777,7 +1798,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1787,14 +1808,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1803,14 +1824,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1820,14 +1841,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1843,7 +1864,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1853,11 +1874,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>12</v>
@@ -1869,14 +1890,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1909,7 +1930,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1919,11 +1940,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -1935,28 +1956,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1968,28 +1989,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2001,20 +2022,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -2041,21 +2062,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2067,31 +2088,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2100,14 +2121,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2117,11 +2138,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2133,14 +2154,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2150,14 +2171,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2166,14 +2187,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2183,14 +2204,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2199,14 +2220,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2216,14 +2237,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2232,14 +2253,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2249,14 +2270,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2265,14 +2286,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2282,14 +2303,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2298,14 +2319,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2315,11 +2336,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2331,14 +2352,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2348,11 +2369,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2364,14 +2385,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2381,14 +2402,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2397,14 +2418,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2414,14 +2435,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2430,14 +2451,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2447,14 +2468,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2463,31 +2484,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2503,7 +2524,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2513,14 +2534,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2536,24 +2557,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2569,7 +2590,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2579,14 +2600,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2595,7 +2616,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2612,14 +2633,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2635,7 +2656,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2645,7 +2666,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2668,7 +2689,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2678,14 +2699,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2694,14 +2715,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2711,11 +2732,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2727,14 +2748,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>88</v>
+        <v>133</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2744,14 +2765,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2767,7 +2788,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2800,7 +2821,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2810,14 +2831,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2833,7 +2854,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2843,11 +2864,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2859,31 +2880,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2892,14 +2913,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2909,14 +2930,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2925,31 +2946,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2958,14 +2979,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2975,11 +2996,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2991,14 +3012,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3008,14 +3029,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3024,14 +3045,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3041,11 +3062,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -3064,7 +3085,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3097,7 +3118,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3107,14 +3128,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3123,14 +3144,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3140,11 +3161,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3173,14 +3194,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3196,7 +3217,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3206,14 +3227,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3239,14 +3260,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3255,14 +3276,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3272,14 +3293,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>173</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3295,7 +3316,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3305,14 +3326,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3321,14 +3342,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3338,11 +3359,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3354,14 +3375,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3371,11 +3392,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>46</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3387,14 +3408,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3404,7 +3425,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3427,7 +3448,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3437,14 +3458,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3453,31 +3474,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3486,14 +3507,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3503,14 +3524,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>191</v>
+        <v>48</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3519,14 +3540,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3536,11 +3557,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3552,14 +3573,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3569,14 +3590,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3585,28 +3606,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3618,14 +3639,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3635,11 +3656,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3651,14 +3672,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3668,11 +3689,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3684,14 +3705,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3701,14 +3722,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3717,14 +3738,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3734,14 +3755,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3750,14 +3771,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3767,14 +3788,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3783,14 +3804,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3800,11 +3821,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3816,14 +3837,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3833,11 +3854,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>12</v>
@@ -3856,7 +3877,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3889,7 +3910,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3899,11 +3920,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -3922,7 +3943,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3932,14 +3953,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3948,14 +3969,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3965,11 +3986,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>97</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -3981,14 +4002,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3998,14 +4019,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4014,14 +4035,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4031,14 +4052,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4047,14 +4068,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4064,14 +4085,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4080,14 +4101,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4097,14 +4118,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4113,31 +4134,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>97</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4146,31 +4167,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4179,31 +4200,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4212,31 +4233,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4245,28 +4266,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4278,31 +4299,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>30</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>237</v>
+        <v>184</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>259</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4311,31 +4332,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>159</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4344,28 +4365,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>50</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4384,24 +4405,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>264</v>
+        <v>33</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4417,24 +4438,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4450,24 +4471,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4476,28 +4497,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>53</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4509,31 +4530,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>66</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4542,28 +4563,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>175</v>
+        <v>273</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4575,66 +4596,198 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>270</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5246.1750000000002</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>275</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>12</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>67</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
         <v>276</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>277</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c t="s" r="Q102" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
         <v>278</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>279</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>67</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>48</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>280</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>281</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>271</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>67</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>184</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>282</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>33</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>67</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>276</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>5912.1750000000002</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>283</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>284</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>285</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5118,10 +5271,30 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -860,7 +860,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 7:57 PM</t>
+    <t>Saturday, 14 June, 2025 7:58 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -860,7 +860,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 7:58 PM</t>
+    <t>Saturday, 14 June, 2025 8:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -704,7 +704,7 @@
     <t>46.00</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>69.0000</t>
   </si>
   <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
@@ -845,6 +845,15 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -860,7 +869,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 8:02 PM</t>
+    <t>Saturday, 14 June, 2025 8:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4009,7 +4018,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4026,7 +4035,7 @@
         <v>231</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4669,7 +4678,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4679,14 +4688,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>48</v>
+        <v>279</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4702,7 +4711,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4712,14 +4721,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>184</v>
+        <v>48</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>185</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4728,14 +4737,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>271</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4745,49 +4754,82 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>285</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>33</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>67</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>276</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>277</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5912.1750000000002</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>283</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>284</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>285</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c t="s" r="Q106" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>5943.1750000000002</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>286</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>287</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>288</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5291,10 +5333,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>250.0000</t>
   </si>
   <si>
+    <t>COMFORT GEL 50 GM</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>CONCOR PLUS 10/25MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -305,9 +314,6 @@
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
-    <t>70.00</t>
-  </si>
-  <si>
     <t>35.0000</t>
   </si>
   <si>
@@ -437,6 +443,18 @@
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -518,6 +536,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>49.5000</t>
+  </si>
+  <si>
     <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
   </si>
   <si>
@@ -653,6 +680,9 @@
     <t>6.7200</t>
   </si>
   <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -851,9 +881,6 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -869,7 +896,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 8:11 PM</t>
+    <t>Saturday, 14 June, 2025 8:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2137,7 +2164,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2147,14 +2174,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2180,7 +2207,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2213,14 +2240,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2229,14 +2256,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2246,14 +2273,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2286,7 +2313,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2302,7 +2329,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2312,14 +2339,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2368,7 +2395,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2378,11 +2405,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2394,14 +2421,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2411,11 +2438,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2444,14 +2471,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2460,14 +2487,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2477,14 +2504,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2493,14 +2520,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2510,14 +2537,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2526,14 +2553,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2543,11 +2570,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2559,31 +2586,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>90</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2599,24 +2626,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2625,14 +2652,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2642,14 +2669,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2665,7 +2692,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2675,14 +2702,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2698,7 +2725,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2708,14 +2735,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2741,14 +2768,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2764,7 +2791,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2774,11 +2801,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2790,14 +2817,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2807,11 +2834,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2823,14 +2850,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2840,14 +2867,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2863,7 +2890,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2873,14 +2900,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2889,14 +2916,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2906,14 +2933,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2929,7 +2956,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2939,14 +2966,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2955,31 +2982,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2995,7 +3022,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3005,14 +3032,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3021,31 +3048,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3054,14 +3081,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3071,14 +3098,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3087,14 +3114,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3104,14 +3131,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3127,7 +3154,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3144,7 +3171,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3160,7 +3187,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3174,10 +3201,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3186,14 +3213,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3203,14 +3230,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3219,14 +3246,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3236,14 +3263,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3252,14 +3279,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3269,14 +3296,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3285,14 +3312,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3302,14 +3329,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3318,14 +3345,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3335,11 +3362,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3351,14 +3378,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3368,14 +3395,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3384,14 +3411,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3401,11 +3428,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>178</v>
+        <v>38</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3417,14 +3444,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3434,11 +3461,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3450,14 +3477,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3467,7 +3494,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3523,7 +3550,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3533,14 +3560,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3549,14 +3576,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3566,14 +3593,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3582,14 +3609,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3599,14 +3626,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3615,31 +3642,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3655,7 +3682,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3665,11 +3692,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3681,14 +3708,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3727,18 +3754,18 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3754,7 +3781,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3764,11 +3791,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3780,14 +3807,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3830,14 +3857,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>64</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3846,14 +3873,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3863,14 +3890,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3879,14 +3906,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3896,14 +3923,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3912,14 +3939,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3929,14 +3956,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3945,14 +3972,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>41</v>
+        <v>225</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3962,7 +3989,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -3985,7 +4012,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3995,11 +4022,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4011,14 +4038,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4028,14 +4055,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4044,14 +4071,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4061,11 +4088,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4077,14 +4104,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4094,14 +4121,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4117,7 +4144,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4127,11 +4154,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4143,14 +4170,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4160,14 +4187,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4176,14 +4203,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4193,14 +4220,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4209,14 +4236,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4226,14 +4253,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>161</v>
+        <v>246</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4242,14 +4269,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4259,14 +4286,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4275,31 +4302,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>99</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4308,31 +4335,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>184</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4341,31 +4368,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>167</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4381,24 +4408,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4407,14 +4434,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>33</v>
+        <v>263</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4424,11 +4451,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>246</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4440,14 +4467,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>33</v>
+        <v>265</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4457,14 +4484,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>108</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>266</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4473,7 +4500,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4490,14 +4517,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>168</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4513,7 +4540,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4523,11 +4550,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>53</v>
+        <v>271</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4539,14 +4566,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4556,14 +4583,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>53</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4572,14 +4599,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4589,14 +4616,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4605,7 +4632,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4622,14 +4649,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4638,14 +4665,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4655,11 +4682,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>276</v>
+        <v>53</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>12</v>
@@ -4671,14 +4698,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4688,14 +4715,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>279</v>
+        <v>53</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4704,14 +4731,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4721,14 +4748,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>48</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4744,7 +4771,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4754,14 +4781,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>184</v>
+        <v>283</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4777,7 +4804,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4787,49 +4814,181 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>5943.1750000000002</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>288</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>33</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>67</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>289</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>290</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>291</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>67</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>48</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>293</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>281</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>67</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>193</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>294</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>33</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>67</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
         <v>286</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>287</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
-        <v>288</v>
-      </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c t="s" r="Q110" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>6093.4449999999997</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>295</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>296</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>297</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5338,10 +5497,30 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -278,13 +278,16 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>26:0</t>
+    <t>25:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>99.0000</t>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
@@ -311,6 +314,18 @@
     <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -392,6 +407,18 @@
     <t>270.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>FLECTOR 50MG 30 CAPS</t>
   </si>
   <si>
@@ -623,9 +650,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -749,12 +773,6 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -785,9 +803,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>ZYRTEC 10MG 20 TAB</t>
   </si>
   <si>
@@ -896,7 +911,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 8:24 PM</t>
+    <t>Saturday, 14 June, 2025 8:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2280,7 +2295,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2289,14 +2304,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2306,14 +2321,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2322,7 +2337,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2339,11 +2354,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2355,7 +2370,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2388,14 +2403,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2405,14 +2420,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2421,14 +2436,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2438,11 +2453,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2454,14 +2469,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2471,11 +2486,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2487,14 +2502,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2504,14 +2519,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2520,14 +2535,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2537,14 +2552,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2553,14 +2568,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2570,14 +2585,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2586,14 +2601,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2603,11 +2618,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2619,31 +2634,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2652,31 +2667,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2685,14 +2700,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2702,14 +2717,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2718,14 +2733,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2735,14 +2750,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2751,14 +2766,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2768,14 +2783,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2784,14 +2799,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2801,11 +2816,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2817,14 +2832,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2834,14 +2849,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2850,14 +2865,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2867,11 +2882,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2883,14 +2898,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2900,14 +2915,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2916,14 +2931,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2933,11 +2948,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2949,14 +2964,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2966,11 +2981,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2982,14 +2997,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2999,14 +3014,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3015,14 +3030,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3032,14 +3047,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3048,31 +3063,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3081,14 +3096,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3098,14 +3113,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3114,31 +3129,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3147,14 +3162,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3164,14 +3179,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3180,14 +3195,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3197,14 +3212,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3213,14 +3228,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3230,14 +3245,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3246,14 +3261,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3263,14 +3278,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3279,14 +3294,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3296,14 +3311,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3312,14 +3327,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3329,14 +3344,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3345,14 +3360,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3362,14 +3377,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3378,14 +3393,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3395,11 +3410,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3411,14 +3426,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3428,14 +3443,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3444,14 +3459,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3461,11 +3476,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3477,14 +3492,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3494,11 +3509,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3510,14 +3525,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3527,14 +3542,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>188</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3543,14 +3558,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3560,14 +3575,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3576,14 +3591,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3593,11 +3608,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3609,14 +3624,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3626,14 +3641,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3642,14 +3657,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3659,11 +3674,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>48</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3675,14 +3690,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3692,14 +3707,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3708,14 +3723,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3725,14 +3740,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3741,28 +3756,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3774,14 +3789,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3791,11 +3806,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3807,28 +3822,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3840,14 +3855,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3857,14 +3872,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3873,7 +3888,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3890,11 +3905,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3906,14 +3921,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3923,14 +3938,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3939,14 +3954,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3956,11 +3971,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3972,14 +3987,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3989,11 +4004,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4005,14 +4020,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4022,14 +4037,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4038,14 +4053,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4055,14 +4070,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4071,7 +4086,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4088,11 +4103,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>12</v>
@@ -4104,14 +4119,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4121,14 +4136,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4137,14 +4152,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4154,11 +4169,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>12</v>
@@ -4170,14 +4185,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4187,14 +4202,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>240</v>
+        <v>179</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4203,14 +4218,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4220,11 +4235,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>38</v>
+        <v>205</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4236,14 +4251,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4253,14 +4268,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4269,14 +4284,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>37</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4286,11 +4301,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4302,14 +4317,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4319,14 +4334,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4335,14 +4350,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>254</v>
+        <v>37</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4356,10 +4371,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4368,14 +4383,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4385,14 +4400,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>167</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>168</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4408,7 +4423,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4418,14 +4433,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4434,31 +4449,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>263</v>
+        <v>92</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4474,24 +4489,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4500,14 +4515,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4517,14 +4532,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4550,11 +4565,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4566,7 +4581,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4583,14 +4598,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4599,14 +4614,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4616,14 +4631,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>110</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>276</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4632,7 +4647,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4649,11 +4664,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>174</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4665,14 +4680,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>258</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4682,14 +4697,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>53</v>
+        <v>261</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4698,14 +4713,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4715,14 +4730,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>53</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4731,14 +4746,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4748,11 +4763,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>216</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4764,14 +4779,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4781,11 +4796,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>37</v>
@@ -4797,7 +4812,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4814,11 +4829,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4830,7 +4845,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4847,14 +4862,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4870,7 +4885,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4880,14 +4895,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>48</v>
+        <v>291</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>292</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4903,7 +4918,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>281</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4913,11 +4928,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>193</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4929,14 +4944,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>296</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4946,49 +4961,115 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>286</v>
+        <v>48</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>6093.4449999999997</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>295</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>296</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>297</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>298</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>286</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>67</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>202</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>203</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>299</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>33</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>67</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>291</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>292</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6175.4449999999997</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>300</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>301</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>302</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5517,10 +5598,20 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -749,6 +749,12 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
     <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
@@ -911,7 +917,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 8:30 PM</t>
+    <t>Saturday, 14 June, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4225,7 +4231,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4235,14 +4241,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4251,14 +4257,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4268,14 +4274,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4284,14 +4290,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4301,14 +4307,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4334,11 +4340,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4357,7 +4363,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4367,11 +4373,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>134</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4390,7 +4396,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4404,10 +4410,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4416,14 +4422,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4433,14 +4439,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4449,14 +4455,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>92</v>
+        <v>262</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4466,11 +4472,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>176</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>177</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>37</v>
@@ -4482,14 +4488,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4499,14 +4505,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>176</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4515,31 +4521,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>106</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4565,11 +4571,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>202</v>
+        <v>257</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4588,7 +4594,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4598,14 +4604,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>272</v>
+        <v>202</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4614,14 +4620,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>275</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4631,14 +4637,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4647,14 +4653,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4664,11 +4670,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4697,14 +4703,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>115</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>281</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4730,14 +4736,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4753,7 +4759,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4763,11 +4769,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>53</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4779,14 +4785,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>92</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4800,10 +4806,10 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4819,7 +4825,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4829,14 +4835,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>53</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4852,7 +4858,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4862,14 +4868,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>54</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4878,14 +4884,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4895,14 +4901,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>292</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4911,14 +4917,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4928,11 +4934,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>156</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4951,7 +4957,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4961,14 +4967,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>48</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>297</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4977,14 +4983,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -4994,14 +5000,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>203</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5010,14 +5016,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5027,49 +5033,82 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>291</v>
+        <v>202</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>292</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6175.4449999999997</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>300</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>301</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>33</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>67</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>293</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6206.4449999999997</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
         <v>302</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>303</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>304</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5608,10 +5647,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -176,6 +176,18 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>CARBAMIDE 10% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -287,9 +299,6 @@
     <t>132.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -476,9 +485,6 @@
     <t>0:4</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>8.0000</t>
   </si>
   <si>
@@ -818,6 +824,9 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">الو ايفا200مل </t>
+  </si>
+  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -851,6 +860,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -875,49 +893,46 @@
     <t xml:space="preserve">فاميليا مناديل </t>
   </si>
   <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>ماسك صنفره بوبانا</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
     <t>19:0</t>
   </si>
   <si>
-    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>ماسك صنفره بوبانا</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 25 مل</t>
-  </si>
-  <si>
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 8:43 PM</t>
+    <t>Saturday, 14 June, 2025 8:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1987,7 +2002,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1997,11 +2012,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>12</v>
@@ -2013,14 +2028,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2053,21 +2068,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>12</v>
@@ -2079,28 +2094,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -2119,21 +2134,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>12</v>
@@ -2145,20 +2160,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -2185,21 +2200,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -2211,14 +2226,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2228,14 +2243,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2261,11 +2276,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2277,14 +2292,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2310,14 +2325,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2327,14 +2342,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2367,7 +2382,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2383,7 +2398,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2393,14 +2408,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2426,11 +2441,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2492,7 +2507,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2515,7 +2530,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2548,7 +2563,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2565,7 +2580,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2581,7 +2596,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2598,7 +2613,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2614,7 +2629,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2631,7 +2646,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2647,7 +2662,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2680,24 +2695,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2706,31 +2721,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2746,7 +2761,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2756,14 +2771,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2772,14 +2787,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2789,14 +2804,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2805,14 +2820,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2822,11 +2837,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2838,14 +2853,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2855,14 +2870,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2878,7 +2893,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2888,14 +2903,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2904,14 +2919,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2921,11 +2936,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2937,14 +2952,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2977,7 +2992,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2987,14 +3002,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3003,14 +3018,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3020,14 +3035,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3036,14 +3051,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3053,14 +3068,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3069,14 +3084,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3086,14 +3101,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>118</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3109,7 +3124,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3123,10 +3138,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3135,7 +3150,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3148,15 +3163,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3168,31 +3183,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>166</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>71</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3208,7 +3223,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3218,14 +3233,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3241,7 +3256,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3255,10 +3270,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3267,14 +3282,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3284,14 +3299,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3300,14 +3315,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3317,14 +3332,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3333,7 +3348,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3350,14 +3365,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3373,7 +3388,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3383,11 +3398,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3399,14 +3414,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3416,14 +3431,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3432,14 +3447,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3449,11 +3464,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3465,14 +3480,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3482,11 +3497,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3498,14 +3513,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3515,14 +3530,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>39</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3548,14 +3563,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3564,7 +3579,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3581,14 +3596,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3604,7 +3619,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3614,11 +3629,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3630,14 +3645,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>199</v>
+        <v>33</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3647,14 +3662,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>34</v>
+        <v>198</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3663,14 +3678,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3680,14 +3695,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3696,14 +3711,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3713,11 +3728,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>12</v>
@@ -3729,14 +3744,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3746,11 +3761,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3762,14 +3777,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3779,14 +3794,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3802,7 +3817,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3812,11 +3827,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>104</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3828,28 +3843,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3861,28 +3876,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>22</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3894,14 +3909,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3911,11 +3926,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3927,14 +3942,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,14 +3959,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3960,14 +3975,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,14 +3992,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4000,7 +4015,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4010,11 +4025,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4026,14 +4041,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4043,11 +4058,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4059,14 +4074,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,11 +4091,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4092,14 +4107,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4109,14 +4124,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4125,14 +4140,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4142,11 +4157,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>12</v>
@@ -4158,14 +4173,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,7 +4190,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4198,7 +4213,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4208,14 +4223,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4231,7 +4246,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4241,11 +4256,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>181</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4264,7 +4279,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4274,14 +4289,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>206</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4290,14 +4305,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4307,14 +4322,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4323,14 +4338,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4340,14 +4355,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4373,11 +4388,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4396,7 +4411,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4406,11 +4421,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4429,7 +4444,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4443,10 +4458,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4455,14 +4470,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4472,14 +4487,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4488,14 +4503,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>92</v>
+        <v>264</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4505,11 +4520,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>37</v>
@@ -4521,14 +4536,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4538,14 +4553,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,31 +4569,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4594,21 +4609,21 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>202</v>
+        <v>68</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>203</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4620,31 +4635,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>69</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4653,28 +4668,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4686,7 +4701,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4699,18 +4714,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4719,31 +4734,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>115</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>283</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4752,28 +4767,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4792,21 +4807,21 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4818,31 +4833,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>288</v>
+        <v>33</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>53</v>
+        <v>265</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>37</v>
+        <v>289</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4851,28 +4866,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4884,31 +4899,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>53</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
         <v>54</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4917,31 +4932,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>53</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4957,13 +4972,13 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
@@ -4971,7 +4986,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -4990,24 +5005,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>298</v>
+        <v>33</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>48</v>
+        <v>296</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5016,28 +5031,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>202</v>
+        <v>284</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5049,7 +5064,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5062,53 +5077,152 @@
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>294</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>6206.4449999999997</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>301</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
         <v>302</v>
       </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>71</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>48</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>303</v>
       </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c t="s" r="Q114" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
         <v>304</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>305</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>71</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>204</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>306</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>33</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>71</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>284</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6401.4449999999997</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>307</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>308</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>309</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5652,10 +5766,25 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>COLLAGICA FORTE BOTTLE</t>
   </si>
   <si>
@@ -683,15 +692,18 @@
     <t>22.7700</t>
   </si>
   <si>
+    <t>PONOFORTE 500MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>PURGATON 20MG 30 TAB.</t>
   </si>
   <si>
@@ -764,6 +776,15 @@
     <t>TOTAL 500MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
+    <t>TREFLUCAN 150MG 1 CAPS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -773,6 +794,12 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -932,7 +959,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 8:49 PM</t>
+    <t>Saturday, 14 June, 2025 8:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2200,24 +2227,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2226,20 +2253,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2266,7 +2293,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2276,14 +2303,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2309,7 +2336,7 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
@@ -2342,14 +2369,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2358,14 +2385,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2375,14 +2402,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>97</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2391,14 +2418,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2415,7 +2442,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2431,7 +2458,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2441,14 +2468,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2457,14 +2484,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2474,11 +2501,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2490,14 +2517,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2507,14 +2534,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2523,14 +2550,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2540,7 +2567,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2563,7 +2590,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2596,7 +2623,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2613,7 +2640,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2629,7 +2656,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2646,7 +2673,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2662,7 +2689,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2679,7 +2706,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2695,7 +2722,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2728,24 +2755,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2754,31 +2781,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2794,7 +2821,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2804,14 +2831,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2820,14 +2847,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2837,14 +2864,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2853,14 +2880,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>41</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2870,11 +2897,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2886,14 +2913,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2903,14 +2930,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2926,7 +2953,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2936,14 +2963,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2952,14 +2979,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2969,11 +2996,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>12</v>
@@ -2985,14 +3012,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3025,7 +3052,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3035,14 +3062,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>34</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3051,14 +3078,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3068,14 +3095,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3084,14 +3111,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3101,14 +3128,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>57</v>
+        <v>126</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3124,7 +3151,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3134,14 +3161,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3150,14 +3177,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3167,14 +3194,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3196,7 +3223,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3223,24 +3250,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3249,14 +3276,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3266,14 +3293,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3282,14 +3309,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3299,14 +3326,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3322,7 +3349,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3339,7 +3366,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3355,7 +3382,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3372,7 +3399,7 @@
         <v>179</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3402,10 +3429,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3414,14 +3441,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3431,11 +3458,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>38</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3447,14 +3474,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3464,14 +3491,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3487,7 +3514,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3520,7 +3547,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3530,11 +3557,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3546,14 +3573,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3563,14 +3590,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3579,14 +3606,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3596,14 +3623,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3612,7 +3639,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3629,14 +3656,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3645,14 +3672,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3662,7 +3689,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3685,7 +3712,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3695,14 +3722,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>34</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3718,7 +3745,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>37</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3728,14 +3755,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3751,7 +3778,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3784,7 +3811,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3794,11 +3821,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>49</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3810,14 +3837,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3827,14 +3854,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3843,14 +3870,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3860,11 +3887,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>107</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3889,15 +3916,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3916,17 +3943,17 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3949,7 +3976,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3982,7 +4009,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,14 +4019,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4015,7 +4042,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4025,7 +4052,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4058,14 +4085,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>68</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4074,14 +4101,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4091,11 +4118,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4107,14 +4134,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4124,11 +4151,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4140,14 +4167,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4157,14 +4184,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4173,14 +4200,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4190,14 +4217,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4206,7 +4233,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4223,11 +4250,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>12</v>
@@ -4239,14 +4266,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4256,14 +4283,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4279,7 +4306,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4289,14 +4316,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4312,7 +4339,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4322,14 +4349,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4338,14 +4365,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4355,14 +4382,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4378,7 +4405,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>33</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4388,11 +4415,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>12</v>
@@ -4404,14 +4431,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4421,11 +4448,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>137</v>
+        <v>256</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>138</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4444,7 +4471,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4458,10 +4485,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4470,14 +4497,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4487,7 +4514,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4520,14 +4547,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>265</v>
+        <v>38</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4536,14 +4563,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4553,14 +4580,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4569,14 +4596,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4586,14 +4613,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>270</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4602,31 +4629,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>69</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4648,18 +4675,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4668,31 +4695,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>275</v>
+        <v>56</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4701,31 +4728,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4734,14 +4761,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4751,11 +4778,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>281</v>
+        <v>68</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4767,14 +4794,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4784,11 +4811,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4800,14 +4827,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>33</v>
+        <v>284</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4817,11 +4844,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>266</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4833,7 +4860,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4850,14 +4877,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>118</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>289</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4866,14 +4893,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>289</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4883,11 +4910,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>185</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4906,7 +4933,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4916,11 +4943,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>53</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>54</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4932,14 +4959,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>294</v>
+        <v>33</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4949,14 +4976,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>53</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4965,14 +4992,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4982,14 +5009,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -4998,7 +5025,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5015,14 +5042,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5031,14 +5058,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5048,11 +5075,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>284</v>
+        <v>53</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>285</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5064,14 +5091,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>33</v>
+        <v>303</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5081,14 +5108,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>300</v>
+        <v>53</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5097,14 +5124,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5114,14 +5141,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>48</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>303</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5130,14 +5157,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>305</v>
+        <v>33</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5147,14 +5174,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>204</v>
+        <v>305</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5163,14 +5190,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5180,49 +5207,181 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
-      <c r="P117" s="13">
-        <v>6401.4449999999997</v>
-      </c>
-      <c r="Q117" s="13"/>
-    </row>
-    <row r="118" ht="16.5" customHeight="1">
-      <c t="s" r="A118" s="14">
-        <v>307</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c t="s" r="G118" s="15">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
         <v>308</v>
       </c>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="16"/>
-      <c t="s" r="K118" s="17">
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>33</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>71</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
         <v>309</v>
       </c>
-      <c r="L118" s="17"/>
-      <c r="M118" s="17"/>
-      <c r="N118" s="17"/>
-      <c r="O118" s="17"/>
-      <c r="P118" s="17"/>
-      <c r="Q118" s="17"/>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>310</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>311</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>71</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>48</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>313</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>314</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>71</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>207</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>315</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>33</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>71</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>293</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="P121" s="13">
+        <v>6532.4449999999997</v>
+      </c>
+      <c r="Q121" s="13"/>
+    </row>
+    <row r="122" ht="16.5" customHeight="1">
+      <c t="s" r="A122" s="14">
+        <v>316</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c t="s" r="G122" s="15">
+        <v>317</v>
+      </c>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c t="s" r="K122" s="17">
+        <v>318</v>
+      </c>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+      <c r="O122" s="17"/>
+      <c r="P122" s="17"/>
+      <c r="Q122" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="562">
+  <mergeCells count="582">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5781,10 +5940,30 @@
     <mergeCell ref="H116:K116"/>
     <mergeCell ref="L116:M116"/>
     <mergeCell ref="N116:O116"/>
-    <mergeCell ref="P117:Q117"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="K118:Q118"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="P121:Q121"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="G122:I122"/>
+    <mergeCell ref="K122:Q122"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -332,6 +332,9 @@
     <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
   </si>
   <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
     <t>DIASMECT 20% SUSP. 60ML</t>
   </si>
   <si>
@@ -482,7 +485,10 @@
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>21.7800</t>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>87.7800</t>
   </si>
   <si>
     <t>HELI-CURE 14 ENTERIC COATED TAB</t>
@@ -2524,7 +2530,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2534,11 +2540,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2550,14 +2556,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2567,14 +2573,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2583,14 +2589,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2600,11 +2606,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2616,14 +2622,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2633,11 +2639,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2649,14 +2655,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2666,14 +2672,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2682,14 +2688,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2699,14 +2705,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2715,14 +2721,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2732,14 +2738,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2748,14 +2754,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2765,11 +2771,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>12</v>
@@ -2781,31 +2787,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2814,31 +2820,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2847,14 +2853,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2864,14 +2870,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2880,14 +2886,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2897,14 +2903,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2913,14 +2919,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2930,11 +2936,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2946,14 +2952,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2963,14 +2969,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2979,14 +2985,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2996,14 +3002,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3012,14 +3018,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3029,11 +3035,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -3045,14 +3051,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3062,11 +3068,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3078,14 +3084,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3095,14 +3101,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>34</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3111,14 +3117,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3128,14 +3134,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3144,14 +3150,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3161,14 +3167,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3177,14 +3183,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3194,14 +3200,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3217,7 +3223,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3231,10 +3237,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3243,7 +3249,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3256,15 +3262,15 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3276,31 +3282,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>68</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3316,7 +3322,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3326,14 +3332,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3349,7 +3355,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3363,10 +3369,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3375,14 +3381,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3392,14 +3398,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3408,14 +3414,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3425,14 +3431,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3441,7 +3447,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3458,14 +3464,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3481,7 +3487,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3491,11 +3497,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>38</v>
+        <v>186</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>12</v>
@@ -3507,14 +3513,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3524,14 +3530,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3540,14 +3546,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3557,11 +3563,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3573,14 +3579,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3590,11 +3596,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3606,14 +3612,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3623,14 +3629,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3639,14 +3645,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3656,14 +3662,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3672,7 +3678,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3689,14 +3695,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3712,7 +3718,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3722,11 +3728,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>12</v>
@@ -3738,14 +3744,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>33</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3755,14 +3761,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>34</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3771,14 +3777,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>206</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3788,14 +3794,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>34</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3804,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3821,11 +3827,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>12</v>
@@ -3837,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,11 +3860,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>49</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3870,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3887,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3910,7 +3916,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,11 +3926,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>127</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3936,28 +3942,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3969,28 +3975,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4002,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4019,11 +4025,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4035,14 +4041,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4052,7 +4058,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>53</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4075,7 +4081,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4085,14 +4091,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4108,7 +4114,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,14 +4124,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4141,7 +4147,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,11 +4157,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>235</v>
+        <v>165</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4167,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4184,11 +4190,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4200,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,11 +4223,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4233,14 +4239,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4266,14 +4272,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4283,11 +4289,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>12</v>
@@ -4299,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,7 +4322,7 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4339,7 +4345,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4349,14 +4355,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>251</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4372,7 +4378,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4382,11 +4388,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4405,7 +4411,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4415,14 +4421,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4431,14 +4437,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,11 +4454,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>12</v>
@@ -4464,7 +4470,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4481,14 +4487,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4497,14 +4503,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,14 +4520,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4537,7 +4543,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4553,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>39</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4580,11 +4586,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4603,7 +4609,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>37</v>
+        <v>268</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4613,11 +4619,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>268</v>
+        <v>141</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4636,7 +4642,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>230</v>
+        <v>37</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4650,10 +4656,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4662,14 +4668,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,14 +4685,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4695,14 +4701,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>56</v>
+        <v>275</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4712,11 +4718,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>181</v>
+        <v>276</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>37</v>
@@ -4728,14 +4734,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4745,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>183</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4761,7 +4767,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4774,18 +4780,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>68</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4794,14 +4800,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4811,11 +4817,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>268</v>
+        <v>68</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4844,11 +4850,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>207</v>
+        <v>270</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4867,7 +4873,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4877,14 +4883,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>287</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,14 +4899,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>289</v>
+        <v>33</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,14 +4916,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4926,14 +4932,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,11 +4949,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -4959,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4976,11 +4982,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -5009,14 +5015,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>121</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>298</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5042,14 +5048,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>188</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5065,7 +5071,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,11 +5081,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>53</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>54</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5091,14 +5097,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>303</v>
+        <v>56</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5112,10 +5118,10 @@
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5131,7 +5137,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5141,14 +5147,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>228</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5164,7 +5170,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5174,14 +5180,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5190,14 +5196,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5207,14 +5213,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>294</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5223,14 +5229,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5240,11 +5246,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>161</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5263,7 +5269,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>311</v>
+        <v>33</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5273,14 +5279,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>48</v>
+        <v>311</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5289,14 +5295,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5306,14 +5312,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>208</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5329,7 +5335,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>33</v>
+        <v>316</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5339,49 +5345,82 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>293</v>
+        <v>209</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>294</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
-      <c r="P121" s="13">
-        <v>6532.4449999999997</v>
-      </c>
-      <c r="Q121" s="13"/>
-    </row>
-    <row r="122" ht="16.5" customHeight="1">
-      <c t="s" r="A122" s="14">
-        <v>316</v>
-      </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c t="s" r="G122" s="15">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
         <v>317</v>
       </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
-      <c r="J122" s="16"/>
-      <c t="s" r="K122" s="17">
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>33</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>71</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>295</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>6706.4449999999997</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
         <v>318</v>
       </c>
-      <c r="L122" s="17"/>
-      <c r="M122" s="17"/>
-      <c r="N122" s="17"/>
-      <c r="O122" s="17"/>
-      <c r="P122" s="17"/>
-      <c r="Q122" s="17"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>319</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>320</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="582">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5960,10 +5999,15 @@
     <mergeCell ref="H120:K120"/>
     <mergeCell ref="L120:M120"/>
     <mergeCell ref="N120:O120"/>
-    <mergeCell ref="P121:Q121"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="K122:Q122"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -407,6 +407,15 @@
     <t>165.0000</t>
   </si>
   <si>
+    <t>EUTHYROX 50MCG 50 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -425,7 +434,7 @@
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
-    <t>270.0000</t>
+    <t>360.0000</t>
   </si>
   <si>
     <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
@@ -794,9 +803,6 @@
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
-    <t>46.00</t>
-  </si>
-  <si>
     <t>69.0000</t>
   </si>
   <si>
@@ -965,7 +971,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 8:50 PM</t>
+    <t>Saturday, 14 June, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2827,24 +2833,24 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2853,31 +2859,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2893,7 +2899,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2903,14 +2909,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>124</v>
+        <v>48</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2919,14 +2925,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>140</v>
+        <v>33</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2936,14 +2942,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2952,14 +2958,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2969,11 +2975,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2985,14 +2991,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3002,14 +3008,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3025,7 +3031,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3035,14 +3041,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3051,14 +3057,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3068,11 +3074,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -3084,14 +3090,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3124,7 +3130,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3134,14 +3140,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3157,7 +3163,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3167,14 +3173,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3183,14 +3189,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3200,14 +3206,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3223,7 +3229,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3233,14 +3239,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>57</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>125</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3249,14 +3255,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3266,14 +3272,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3295,7 +3301,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3322,24 +3328,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>68</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3348,14 +3354,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3365,14 +3371,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3381,14 +3387,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3398,14 +3404,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3421,7 +3427,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3438,7 +3444,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3454,7 +3460,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3471,7 +3477,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3501,10 +3507,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3513,14 +3519,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3530,11 +3536,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>38</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3546,14 +3552,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3563,14 +3569,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>189</v>
+        <v>38</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>190</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3586,7 +3592,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3619,7 +3625,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3629,11 +3635,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3645,14 +3651,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3662,14 +3668,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3678,14 +3684,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,14 +3701,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3711,7 +3717,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3728,14 +3734,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3744,14 +3750,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,7 +3767,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3784,7 +3790,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>206</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3794,14 +3800,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3817,7 +3823,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,14 +3833,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3850,7 +3856,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3883,7 +3889,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,11 +3899,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>48</v>
+        <v>215</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3909,14 +3915,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3926,14 +3932,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3942,14 +3948,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3959,11 +3965,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>111</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3988,15 +3994,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>22</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4015,17 +4021,17 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
@@ -4048,7 +4054,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4081,7 +4087,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4091,11 +4097,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4107,14 +4113,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,14 +4130,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4140,14 +4146,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4157,14 +4163,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4173,14 +4179,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>236</v>
+        <v>33</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,11 +4196,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4206,14 +4212,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,11 +4229,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4239,14 +4245,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,11 +4262,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4272,14 +4278,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4296,7 +4302,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4312,7 +4318,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4345,7 +4351,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,11 +4361,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>183</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>12</v>
@@ -4371,14 +4377,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4392,10 +4398,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4404,14 +4410,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,11 +4427,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>255</v>
+        <v>189</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>39</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4437,14 +4443,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,14 +4460,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>213</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4470,14 +4476,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,11 +4493,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>258</v>
+        <v>215</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>259</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4527,7 +4533,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4543,7 +4549,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4553,14 +4559,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>258</v>
+        <v>133</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>264</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4576,7 +4582,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4586,14 +4592,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>39</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4619,11 +4625,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4642,7 +4648,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4652,11 +4658,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4675,7 +4681,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>232</v>
+        <v>37</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4689,10 +4695,10 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,14 +4707,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,14 +4724,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4734,14 +4740,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>56</v>
+        <v>277</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,11 +4757,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>37</v>
@@ -4767,14 +4773,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4784,14 +4790,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>281</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,7 +4806,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4813,18 +4819,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>68</v>
+        <v>282</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>69</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4833,14 +4839,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4850,11 +4856,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>270</v>
+        <v>68</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>12</v>
@@ -4883,11 +4889,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4906,7 +4912,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4916,14 +4922,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4932,14 +4938,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>291</v>
+        <v>33</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,14 +4955,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,14 +4971,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>293</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,11 +4988,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>12</v>
@@ -4998,14 +5004,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5015,11 +5021,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5048,14 +5054,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>122</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>300</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5081,14 +5087,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>190</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5104,7 +5110,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,11 +5120,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>53</v>
+        <v>304</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>12</v>
@@ -5130,14 +5136,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>305</v>
+        <v>56</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5151,10 +5157,10 @@
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5170,7 +5176,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5180,14 +5186,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>307</v>
+        <v>53</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5203,7 +5209,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5213,14 +5219,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5229,14 +5235,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5246,14 +5252,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5262,14 +5268,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5279,11 +5285,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5302,7 +5308,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>313</v>
+        <v>33</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5312,14 +5318,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>48</v>
+        <v>313</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>314</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5328,14 +5334,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5345,14 +5351,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>210</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5368,7 +5374,7 @@
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5378,49 +5384,82 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>296</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
-      <c r="P122" s="13">
-        <v>6706.4449999999997</v>
-      </c>
-      <c r="Q122" s="13"/>
-    </row>
-    <row r="123" ht="16.5" customHeight="1">
-      <c t="s" r="A123" s="14">
-        <v>318</v>
-      </c>
-      <c r="B123" s="14"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c t="s" r="G123" s="15">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
         <v>319</v>
       </c>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
-      <c r="J123" s="16"/>
-      <c t="s" r="K123" s="17">
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>33</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>71</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>297</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>298</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="P123" s="13">
+        <v>6842.4449999999997</v>
+      </c>
+      <c r="Q123" s="13"/>
+    </row>
+    <row r="124" ht="16.5" customHeight="1">
+      <c t="s" r="A124" s="14">
         <v>320</v>
       </c>
-      <c r="L123" s="17"/>
-      <c r="M123" s="17"/>
-      <c r="N123" s="17"/>
-      <c r="O123" s="17"/>
-      <c r="P123" s="17"/>
-      <c r="Q123" s="17"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c t="s" r="G124" s="15">
+        <v>321</v>
+      </c>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c t="s" r="K124" s="17">
+        <v>322</v>
+      </c>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+      <c r="O124" s="17"/>
+      <c r="P124" s="17"/>
+      <c r="Q124" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="587">
+  <mergeCells count="592">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6004,10 +6043,15 @@
     <mergeCell ref="H121:K121"/>
     <mergeCell ref="L121:M121"/>
     <mergeCell ref="N121:O121"/>
-    <mergeCell ref="P122:Q122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="K123:Q123"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="P123:Q123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="G124:I124"/>
+    <mergeCell ref="K124:Q124"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -347,6 +347,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>DIMRA 20 F.C.TAB.</t>
   </si>
   <si>
@@ -407,6 +416,18 @@
     <t>165.0000</t>
   </si>
   <si>
+    <t>ESMOPROTON 40 MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40 MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
     <t>EUTHYROX 50MCG 50 TAB</t>
   </si>
   <si>
@@ -626,15 +647,21 @@
     <t>39.0000</t>
   </si>
   <si>
+    <t>NANAZOXID 500MG 18 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
     <t>NATRILIX SR 1.5MG 30 COATED TAB</t>
   </si>
   <si>
     <t>55.00</t>
   </si>
   <si>
-    <t>55.0000</t>
-  </si>
-  <si>
     <t>NEUROTON 6 AMP</t>
   </si>
   <si>
@@ -830,6 +857,12 @@
     <t>35.00</t>
   </si>
   <si>
+    <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
+  </si>
+  <si>
+    <t>14.4000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -875,7 +908,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>16:0</t>
+    <t>15:0</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -920,6 +953,12 @@
     <t>17:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سكاته بوب تون</t>
   </si>
   <si>
@@ -956,10 +995,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>72.0000</t>
+    <t>8:0</t>
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
@@ -971,7 +1007,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 8:54 PM</t>
+    <t>Saturday, 14 June, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2602,7 +2638,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2612,14 +2648,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2628,14 +2664,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2645,7 +2681,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2668,7 +2704,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2701,7 +2737,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2718,7 +2754,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2734,7 +2770,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2751,7 +2787,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2767,7 +2803,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2784,7 +2820,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2800,7 +2836,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2833,7 +2869,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2866,24 +2902,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2892,14 +2928,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2909,14 +2945,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2925,14 +2961,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2942,14 +2978,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2965,24 +3001,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2991,14 +3027,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3008,14 +3044,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3024,14 +3060,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3041,14 +3077,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3057,14 +3093,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3074,7 +3110,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3097,7 +3133,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3107,11 +3143,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3123,14 +3159,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3140,14 +3176,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3156,14 +3192,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3173,14 +3209,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3189,14 +3225,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3206,11 +3242,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -3229,7 +3265,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3239,14 +3275,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3262,7 +3298,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3272,14 +3308,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3288,14 +3324,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3305,11 +3341,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -3321,31 +3357,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3354,14 +3390,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>37</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3371,14 +3407,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3387,14 +3423,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3404,14 +3440,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3427,13 +3463,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3460,7 +3496,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3470,11 +3506,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>68</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3486,14 +3522,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3503,11 +3539,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>37</v>
@@ -3519,14 +3555,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3536,11 +3572,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>12</v>
@@ -3552,14 +3588,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3569,14 +3605,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3585,14 +3621,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3602,14 +3638,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3618,14 +3654,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3635,14 +3671,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3658,7 +3694,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3668,14 +3704,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3684,14 +3720,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3701,14 +3737,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3717,14 +3753,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3734,11 +3770,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>54</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3750,14 +3786,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3767,14 +3803,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3783,14 +3819,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3800,11 +3836,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>12</v>
@@ -3816,14 +3852,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3833,11 +3869,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3849,14 +3885,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3866,11 +3902,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>12</v>
@@ -3882,14 +3918,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3899,14 +3935,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3915,14 +3951,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3932,11 +3968,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>12</v>
@@ -3948,14 +3984,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>218</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3965,7 +4001,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -3988,7 +4024,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3998,14 +4034,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4021,24 +4057,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>33</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4054,7 +4090,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4064,14 +4100,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>228</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4080,14 +4116,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4097,11 +4133,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4113,14 +4149,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4130,11 +4166,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>233</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4146,31 +4182,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4179,14 +4215,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4196,7 +4232,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4219,7 +4255,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4229,11 +4265,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4245,14 +4281,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4262,11 +4298,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4295,14 +4331,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>245</v>
+        <v>68</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4311,14 +4347,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4328,14 +4364,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4344,14 +4380,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>33</v>
+        <v>248</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4361,14 +4397,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4377,14 +4413,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4394,14 +4430,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4410,14 +4446,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4427,11 +4463,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4443,14 +4479,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4460,14 +4496,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4493,11 +4529,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>12</v>
@@ -4509,7 +4545,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4526,11 +4562,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4542,14 +4578,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4559,14 +4595,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4575,14 +4611,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4592,11 +4628,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4608,14 +4644,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>268</v>
+        <v>33</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4625,11 +4661,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4648,7 +4684,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4658,11 +4694,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>144</v>
+        <v>270</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>12</v>
@@ -4674,14 +4710,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4691,14 +4727,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4707,14 +4743,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4724,7 +4760,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4757,14 +4793,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>278</v>
+        <v>38</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4773,14 +4809,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>56</v>
+        <v>279</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4790,14 +4826,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4806,14 +4842,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4823,14 +4859,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>283</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4839,31 +4875,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>69</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4872,31 +4908,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>113</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4918,18 +4954,18 @@
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>212</v>
+        <v>289</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4938,31 +4974,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>290</v>
+        <v>193</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>291</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4978,24 +5014,24 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5004,7 +5040,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5021,11 +5057,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>297</v>
+        <v>68</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>298</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>12</v>
@@ -5037,14 +5073,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>33</v>
+        <v>297</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5054,11 +5090,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>279</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>12</v>
@@ -5070,14 +5106,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>33</v>
+        <v>299</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5087,14 +5123,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>278</v>
+        <v>221</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>302</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5103,7 +5139,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5120,14 +5156,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5136,14 +5172,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>56</v>
+        <v>304</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5153,11 +5189,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>53</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>54</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>12</v>
@@ -5169,14 +5205,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5186,14 +5222,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>53</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>125</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5202,14 +5238,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5219,11 +5255,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>233</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5235,7 +5271,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5252,14 +5288,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>37</v>
+        <v>313</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5268,14 +5304,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5285,11 +5321,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5301,7 +5337,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5318,11 +5354,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5334,14 +5370,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>315</v>
+        <v>56</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5351,14 +5387,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>316</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5367,14 +5403,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5384,14 +5420,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5400,14 +5436,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5417,49 +5453,247 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
-      <c r="P123" s="13">
-        <v>6842.4449999999997</v>
-      </c>
-      <c r="Q123" s="13"/>
-    </row>
-    <row r="124" ht="16.5" customHeight="1">
-      <c t="s" r="A124" s="14">
-        <v>320</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c t="s" r="G124" s="15">
-        <v>321</v>
-      </c>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="16"/>
-      <c t="s" r="K124" s="17">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>323</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>33</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>71</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
         <v>322</v>
       </c>
-      <c r="L124" s="17"/>
-      <c r="M124" s="17"/>
-      <c r="N124" s="17"/>
-      <c r="O124" s="17"/>
-      <c r="P124" s="17"/>
-      <c r="Q124" s="17"/>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>324</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>12</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>71</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>308</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q124" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>325</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>33</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>71</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>326</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>327</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>328</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>71</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>48</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>263</v>
+      </c>
+      <c t="s" r="Q126" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>329</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>330</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>71</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>221</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>331</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>33</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>71</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>308</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>309</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="P129" s="13">
+        <v>7153.4650000000001</v>
+      </c>
+      <c r="Q129" s="13"/>
+    </row>
+    <row r="130" ht="16.5" customHeight="1">
+      <c t="s" r="A130" s="14">
+        <v>332</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c t="s" r="G130" s="15">
+        <v>333</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c t="s" r="K130" s="17">
+        <v>334</v>
+      </c>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="592">
+  <mergeCells count="622">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6048,10 +6282,40 @@
     <mergeCell ref="H122:K122"/>
     <mergeCell ref="L122:M122"/>
     <mergeCell ref="N122:O122"/>
-    <mergeCell ref="P123:Q123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="G124:I124"/>
-    <mergeCell ref="K124:Q124"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="P129:Q129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="K130:Q130"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -416,6 +416,18 @@
     <t>165.0000</t>
   </si>
   <si>
+    <t>EREC 100MG 12 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>3:8</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>ESMOPROTON 40 MG 14 CAPS</t>
   </si>
   <si>
@@ -671,6 +683,18 @@
     <t>10.5600</t>
   </si>
   <si>
+    <t>NORFLEX 30MG/ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -950,7 +974,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -971,9 +995,6 @@
     <t xml:space="preserve">فاميليا مناديل </t>
   </si>
   <si>
-    <t>18:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -1007,7 +1028,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 8:56 PM</t>
+    <t>Saturday, 14 June, 2025 9:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2902,7 +2923,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2912,14 +2933,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2928,14 +2949,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2945,14 +2966,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2961,7 +2982,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2978,11 +2999,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2994,31 +3015,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3027,31 +3048,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3060,14 +3081,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>33</v>
+        <v>149</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3077,14 +3098,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>127</v>
+        <v>48</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3093,14 +3114,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3110,14 +3131,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3133,7 +3154,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3143,11 +3164,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>12</v>
@@ -3159,14 +3180,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3176,14 +3197,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>156</v>
+        <v>19</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3192,14 +3213,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3209,14 +3230,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3225,14 +3246,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3242,7 +3263,7 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>162</v>
+        <v>121</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
@@ -3265,7 +3286,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3275,11 +3296,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -3291,14 +3312,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3308,14 +3329,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3324,14 +3345,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3341,14 +3362,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3357,14 +3378,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3374,14 +3395,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3390,14 +3411,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>37</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3407,14 +3428,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3423,14 +3444,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3440,14 +3461,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3456,7 +3477,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3469,15 +3490,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3489,31 +3510,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3522,14 +3543,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3539,14 +3560,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3555,14 +3576,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3572,14 +3593,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3588,14 +3609,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3605,14 +3626,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3621,14 +3642,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3638,14 +3659,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3654,7 +3675,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3671,14 +3692,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3687,14 +3708,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3704,11 +3725,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>12</v>
@@ -3720,14 +3741,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3737,14 +3758,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3753,14 +3774,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3770,11 +3791,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3786,14 +3807,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3826,7 +3847,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>37</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3836,14 +3857,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3852,14 +3873,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3869,14 +3890,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3885,7 +3906,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3902,14 +3923,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>206</v>
+        <v>68</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3918,7 +3939,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3935,14 +3956,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3951,14 +3972,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3968,14 +3989,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3984,14 +4005,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4001,14 +4022,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4017,14 +4038,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4034,14 +4055,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4050,14 +4071,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4067,11 +4088,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4083,14 +4104,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4100,11 +4121,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>48</v>
+        <v>229</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4116,14 +4137,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4133,14 +4154,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4149,14 +4170,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4166,14 +4187,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>48</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4182,28 +4203,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4215,14 +4236,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>37</v>
+        <v>238</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4232,11 +4253,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4248,28 +4269,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>33</v>
+        <v>241</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4281,14 +4302,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4298,11 +4319,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4314,14 +4335,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>244</v>
+        <v>33</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4331,14 +4352,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4347,14 +4368,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4364,11 +4385,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4380,14 +4401,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4397,14 +4418,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>249</v>
+        <v>68</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4413,14 +4434,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>244</v>
+        <v>33</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4430,11 +4451,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4446,14 +4467,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4463,11 +4484,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4479,14 +4500,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4496,14 +4517,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4512,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>33</v>
+        <v>261</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4529,14 +4550,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4545,7 +4566,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4562,11 +4583,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4578,14 +4599,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4595,14 +4616,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4611,14 +4632,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4628,14 +4649,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4644,14 +4665,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4661,14 +4682,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4677,14 +4698,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4694,14 +4715,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>271</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4710,14 +4731,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4727,14 +4748,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4743,14 +4764,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4760,14 +4781,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4776,14 +4797,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4793,14 +4814,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4809,14 +4830,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>279</v>
+        <v>41</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4826,14 +4847,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>151</v>
+        <v>278</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>152</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4842,14 +4863,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4859,11 +4880,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4875,14 +4896,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4892,14 +4913,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>283</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4908,14 +4929,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4925,14 +4946,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>286</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4941,14 +4962,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4958,14 +4979,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4974,14 +4995,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>56</v>
+        <v>252</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4991,14 +5012,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>193</v>
+        <v>293</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>194</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5007,14 +5028,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5024,14 +5045,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5040,31 +5061,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5073,31 +5094,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>116</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5106,14 +5127,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5123,14 +5144,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5139,14 +5160,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5156,14 +5177,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>302</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5172,14 +5193,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5189,14 +5210,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>306</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5205,14 +5226,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5222,14 +5243,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5238,14 +5259,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>33</v>
+        <v>312</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5255,11 +5276,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5271,14 +5292,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5288,14 +5309,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>125</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>313</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5304,7 +5325,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5321,11 +5342,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>301</v>
+        <v>319</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5337,7 +5358,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5354,14 +5375,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>12</v>
+        <v>321</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5370,14 +5391,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5387,11 +5408,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>53</v>
+        <v>309</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>54</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5403,14 +5424,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>320</v>
+        <v>33</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5420,14 +5441,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>53</v>
+        <v>325</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>128</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5436,14 +5457,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5453,11 +5474,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>242</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>12</v>
@@ -5469,14 +5490,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>33</v>
+        <v>321</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5486,11 +5507,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>322</v>
+        <v>53</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>265</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>73</v>
@@ -5502,7 +5523,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5519,11 +5540,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>309</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5535,7 +5556,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5552,14 +5573,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5568,14 +5589,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5585,14 +5606,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>48</v>
+        <v>316</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5601,14 +5622,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>330</v>
+        <v>33</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5618,11 +5639,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>221</v>
+        <v>333</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5634,14 +5655,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>33</v>
+        <v>335</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5651,49 +5672,115 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>308</v>
+        <v>48</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
-      <c r="P129" s="13">
-        <v>7153.4650000000001</v>
-      </c>
-      <c r="Q129" s="13"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="14">
-        <v>332</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c t="s" r="G130" s="15">
-        <v>333</v>
-      </c>
-      <c r="H130" s="15"/>
-      <c r="I130" s="15"/>
-      <c r="J130" s="16"/>
-      <c t="s" r="K130" s="17">
-        <v>334</v>
-      </c>
-      <c r="L130" s="17"/>
-      <c r="M130" s="17"/>
-      <c r="N130" s="17"/>
-      <c r="O130" s="17"/>
-      <c r="P130" s="17"/>
-      <c r="Q130" s="17"/>
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>336</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>337</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>71</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>229</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>230</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>338</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>33</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>71</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>316</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>317</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>7197.5050000000001</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>339</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>340</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>341</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="622">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6312,10 +6399,20 @@
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
     <mergeCell ref="N128:O128"/>
-    <mergeCell ref="P129:Q129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="G130:I130"/>
-    <mergeCell ref="K130:Q130"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -525,9 +525,6 @@
   </si>
   <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>0:-1</t>
   </si>
   <si>
     <t>87.7800</t>
@@ -3352,7 +3349,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3366,7 +3363,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>41</v>
@@ -3378,7 +3375,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3411,14 +3408,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3432,7 +3429,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3444,7 +3441,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3461,7 +3458,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3477,7 +3474,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3494,11 +3491,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3510,7 +3507,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3527,11 +3524,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3543,14 +3540,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3576,7 +3573,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3593,7 +3590,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3609,7 +3606,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3626,11 +3623,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3642,7 +3639,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3659,11 +3656,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3675,7 +3672,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3692,11 +3689,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>37</v>
@@ -3708,7 +3705,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3725,7 +3722,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3741,7 +3738,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3774,7 +3771,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3791,11 +3788,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3807,7 +3804,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3824,11 +3821,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3840,14 +3837,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3857,11 +3854,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3873,7 +3870,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3906,7 +3903,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3939,7 +3936,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3956,11 +3953,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3972,7 +3969,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3989,11 +3986,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4005,7 +4002,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4022,7 +4019,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4038,14 +4035,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4059,7 +4056,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4071,14 +4068,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4088,11 +4085,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4104,7 +4101,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4121,11 +4118,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4137,7 +4134,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4154,11 +4151,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4170,7 +4167,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4203,7 +4200,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4224,7 +4221,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4236,14 +4233,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4253,7 +4250,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4269,14 +4266,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4290,7 +4287,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4302,7 +4299,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4319,11 +4316,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4335,7 +4332,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4352,11 +4349,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4368,7 +4365,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4389,7 +4386,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4401,14 +4398,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4422,7 +4419,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>83</v>
@@ -4434,7 +4431,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4451,11 +4448,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4467,14 +4464,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4484,11 +4481,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4500,14 +4497,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4517,11 +4514,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4533,14 +4530,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4550,11 +4547,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4566,7 +4563,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4583,11 +4580,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4599,7 +4596,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4616,11 +4613,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4632,7 +4629,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4649,11 +4646,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>12</v>
@@ -4665,7 +4662,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4682,11 +4679,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4698,7 +4695,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4715,7 +4712,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4731,7 +4728,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4748,11 +4745,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4764,7 +4761,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4781,11 +4778,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4797,7 +4794,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4818,7 +4815,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>41</v>
@@ -4830,7 +4827,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4847,11 +4844,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4863,14 +4860,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4896,14 +4893,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4929,7 +4926,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4946,7 +4943,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4962,7 +4959,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4979,11 +4976,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4995,14 +4992,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5012,11 +5009,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5028,14 +5025,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5045,11 +5042,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>37</v>
@@ -5061,7 +5058,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5078,11 +5075,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>37</v>
@@ -5094,7 +5091,7 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
@@ -5111,11 +5108,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5127,7 +5124,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5160,14 +5157,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5177,7 +5174,7 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
@@ -5193,14 +5190,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5210,7 +5207,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5226,7 +5223,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5243,11 +5240,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>73</v>
@@ -5259,14 +5256,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5276,11 +5273,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5292,7 +5289,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5309,11 +5306,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5325,7 +5322,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5342,11 +5339,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>12</v>
@@ -5358,7 +5355,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5375,14 +5372,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
         <v>163</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5391,7 +5388,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5408,11 +5405,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5424,7 +5421,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5441,11 +5438,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5457,7 +5454,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5490,14 +5487,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5523,7 +5520,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5540,11 +5537,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5556,7 +5553,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5573,11 +5570,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>73</v>
@@ -5589,7 +5586,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5606,11 +5603,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5622,7 +5619,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5639,11 +5636,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5655,14 +5652,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5676,7 +5673,7 @@
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>56</v>
@@ -5688,14 +5685,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5705,11 +5702,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5721,7 +5718,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5738,11 +5735,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>12</v>
@@ -5756,7 +5753,7 @@
     </row>
     <row r="132" ht="16.5" customHeight="1">
       <c t="s" r="A132" s="14">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -5764,13 +5761,13 @@
       <c r="E132" s="14"/>
       <c r="F132" s="14"/>
       <c t="s" r="G132" s="15">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
       <c r="J132" s="16"/>
       <c t="s" r="K132" s="17">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L132" s="17"/>
       <c r="M132" s="17"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -917,9 +917,6 @@
     <t>50.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">الو ايفا200مل </t>
-  </si>
-  <si>
     <t>اولويز ماكس طويل جدا</t>
   </si>
   <si>
@@ -1025,7 +1022,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 9:09 PM</t>
+    <t>Saturday, 14 June, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -5131,7 +5128,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5141,11 +5138,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>68</v>
+        <v>288</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>12</v>
@@ -5157,14 +5154,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5174,14 +5171,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5190,14 +5187,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>306</v>
+        <v>33</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5207,14 +5204,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>228</v>
+        <v>307</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>58</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5223,14 +5220,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>33</v>
+        <v>310</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5240,14 +5237,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5256,14 +5253,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5273,11 +5270,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5289,14 +5286,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5306,11 +5303,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>12</v>
@@ -5322,7 +5319,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5339,14 +5336,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>297</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>319</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5355,7 +5352,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5372,14 +5369,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>163</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>320</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5388,7 +5385,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5405,11 +5402,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5421,14 +5418,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5438,11 +5435,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>12</v>
@@ -5461,7 +5458,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5475,10 +5472,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5494,7 +5491,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5504,14 +5501,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>53</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5520,14 +5517,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5537,14 +5534,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5560,7 +5557,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5570,14 +5567,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5593,7 +5590,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5603,11 +5600,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>316</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5619,14 +5616,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>33</v>
+        <v>333</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5636,14 +5633,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5652,14 +5649,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5669,14 +5666,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5685,14 +5682,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>336</v>
+        <v>33</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5702,82 +5699,49 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>228</v>
+        <v>314</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="A130" s="7">
-        <v>124</v>
-      </c>
-      <c r="B130" s="7"/>
-      <c t="s" r="C130" s="8">
+      <c r="P130" s="13">
+        <v>7137.5050000000001</v>
+      </c>
+      <c r="Q130" s="13"/>
+    </row>
+    <row r="131" ht="16.5" customHeight="1">
+      <c t="s" r="A131" s="14">
         <v>337</v>
       </c>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c t="s" r="H130" s="9">
-        <v>33</v>
-      </c>
-      <c r="I130" s="9"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
-      <c t="s" r="L130" s="10">
-        <v>71</v>
-      </c>
-      <c r="M130" s="10"/>
-      <c t="s" r="N130" s="8">
-        <v>315</v>
-      </c>
-      <c r="O130" s="8"/>
-      <c t="s" r="P130" s="11">
-        <v>316</v>
-      </c>
-      <c t="s" r="Q130" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>7197.5050000000001</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c t="s" r="G131" s="15">
         <v>338</v>
       </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c t="s" r="K131" s="17">
         <v>339</v>
       </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>340</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="627">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6401,15 +6365,10 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:G130"/>
-    <mergeCell ref="H130:K130"/>
-    <mergeCell ref="L130:M130"/>
-    <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="P130:Q130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="K131:Q131"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -311,60 +311,60 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>81.6750</t>
+  </si>
+  <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>47.0250</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
+  </si>
+  <si>
+    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DIMRA 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>54.4500</t>
-  </si>
-  <si>
-    <t>DANSET 8MG/4ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>142.50</t>
-  </si>
-  <si>
-    <t>47.0250</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
-  </si>
-  <si>
-    <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DIMRA 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
     <t>63.00</t>
   </si>
   <si>
@@ -506,126 +506,126 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>71.8200</t>
+  </si>
+  <si>
+    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>87.7800</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>JACKODAN GEL 60 GM</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>KATIVAROX SYRUP</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>LOLAWEST 3GM 6 SACHETS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>LUNNER CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>MEGALASE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>54.0000</t>
-  </si>
-  <si>
-    <t>GLAPTIVIA PLUS 50/1000MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>87.7800</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>JACKODAN GEL 60 GM</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>KATIVAROX SYRUP</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>LOLAWEST 3GM 6 SACHETS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>LUNNER CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>MEGALASE SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -818,6 +818,18 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>SULBIN 750MG VIAL</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>140.0000</t>
+  </si>
+  <si>
     <t>TAVACIN 750MG 5 TAB</t>
   </si>
   <si>
@@ -830,6 +842,9 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>TOPRO 10 SACHETS</t>
+  </si>
+  <si>
     <t>TORSAMOLEX 20MG 20 TABS</t>
   </si>
   <si>
@@ -863,9 +878,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
@@ -875,9 +887,6 @@
     <t>VISCERALGINE 10MG/5ML SYRUP 120 ML</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
     <t>VISCERALGINE 5MG/2ML IM IV 6 AMPOULES</t>
   </si>
   <si>
@@ -896,13 +905,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8671:0</t>
+    <t>8668:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -923,10 +932,16 @@
     <t>36:0</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>15:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -947,9 +962,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
@@ -965,36 +977,39 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاميليا مناديل </t>
+  </si>
+  <si>
     <t>18:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سكاته بوب تون</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فاميليا مناديل </t>
-  </si>
-  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -1010,19 +1025,13 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
-    <t>19:0</t>
-  </si>
-  <si>
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 9:10 PM</t>
+    <t>Saturday, 14 June, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2488,7 +2497,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2498,14 +2507,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2514,7 +2523,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2531,11 +2540,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2547,7 +2556,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2580,7 +2589,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2630,11 +2639,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2646,7 +2655,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2663,11 +2672,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2679,7 +2688,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2700,7 +2709,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2851,7 +2860,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2934,7 +2943,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3066,7 +3075,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3280,7 +3289,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3290,14 +3299,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3306,7 +3315,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3323,11 +3332,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -3339,14 +3348,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3360,7 +3369,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>41</v>
@@ -3372,7 +3381,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3405,14 +3414,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3426,7 +3435,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3438,7 +3447,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3455,7 +3464,7 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3471,7 +3480,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3488,11 +3497,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>12</v>
@@ -3504,7 +3513,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3521,11 +3530,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>12</v>
@@ -3537,14 +3546,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3570,7 +3579,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3587,7 +3596,7 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
@@ -3603,14 +3612,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3620,11 +3629,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>12</v>
@@ -3636,7 +3645,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3653,11 +3662,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3669,7 +3678,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3686,11 +3695,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>37</v>
@@ -3702,7 +3711,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3719,7 +3728,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3735,7 +3744,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3768,7 +3777,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3785,11 +3794,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3801,14 +3810,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -4251,7 +4260,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4445,7 +4454,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4633,7 +4642,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4643,14 +4652,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>196</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4659,14 +4668,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4676,14 +4685,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4692,14 +4701,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4709,11 +4718,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4725,7 +4734,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4742,11 +4751,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4758,14 +4767,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4775,14 +4784,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4791,14 +4800,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4808,14 +4817,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4831,7 +4840,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4841,14 +4850,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4857,14 +4866,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4874,14 +4883,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4890,14 +4899,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4907,14 +4916,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>155</v>
+        <v>282</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4923,14 +4932,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4940,11 +4949,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>288</v>
+        <v>38</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>12</v>
@@ -4963,7 +4972,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>41</v>
+        <v>290</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4973,14 +4982,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4996,7 +5005,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5006,14 +5015,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5022,14 +5031,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5039,14 +5048,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>296</v>
+        <v>198</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5055,14 +5064,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>56</v>
+        <v>251</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5072,14 +5081,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>196</v>
+        <v>295</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>197</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5088,14 +5097,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>298</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5105,14 +5114,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>270</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5121,31 +5130,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>303</v>
+        <v>56</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5154,31 +5163,31 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>58</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5187,14 +5196,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>33</v>
+        <v>306</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5204,14 +5213,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>308</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5220,14 +5229,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5237,11 +5246,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>312</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5253,14 +5262,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5270,14 +5279,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>315</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5286,7 +5295,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5303,14 +5312,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5319,14 +5328,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>33</v>
+        <v>315</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5336,14 +5345,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>163</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>319</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5352,14 +5361,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5369,11 +5378,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5385,7 +5394,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5402,14 +5411,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>203</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5418,14 +5427,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5435,14 +5444,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>53</v>
+        <v>299</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>54</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>12</v>
+        <v>324</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5458,7 +5467,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5468,14 +5477,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>53</v>
+        <v>312</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5484,14 +5493,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5501,11 +5510,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>12</v>
@@ -5517,14 +5526,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5534,14 +5543,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>327</v>
+        <v>53</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5550,14 +5559,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>331</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5567,14 +5576,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>314</v>
+        <v>53</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5583,14 +5592,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5600,11 +5609,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>12</v>
@@ -5616,14 +5625,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>333</v>
+        <v>33</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5633,11 +5642,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>48</v>
+        <v>308</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>270</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>56</v>
@@ -5656,7 +5665,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>335</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5666,11 +5675,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>228</v>
+        <v>318</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>229</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>12</v>
@@ -5682,7 +5691,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5699,49 +5708,148 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>315</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
-      <c r="P130" s="13">
-        <v>7137.5050000000001</v>
-      </c>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
         <v>337</v>
       </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>154</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>71</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>48</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q130" s="12">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
         <v>338</v>
       </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>324</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>71</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>228</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
         <v>339</v>
       </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>33</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>71</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>318</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q132" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>7549.5500000000002</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>340</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>341</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>342</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6365,10 +6473,25 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="P130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -842,6 +842,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>TIMBESTATIN 10/20 MG 7 F.C. TAB</t>
+  </si>
+  <si>
+    <t>154.00</t>
+  </si>
+  <si>
+    <t>154.0000</t>
+  </si>
+  <si>
     <t>TOPRO 10 SACHETS</t>
   </si>
   <si>
@@ -1031,7 +1040,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 9:16 PM</t>
+    <t>Saturday, 14 June, 2025 9:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4751,11 +4760,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4767,14 +4776,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4784,14 +4793,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4800,14 +4809,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4817,14 +4826,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4833,14 +4842,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4850,11 +4859,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>283</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4883,14 +4892,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4899,14 +4908,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4916,14 +4925,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>282</v>
+        <v>144</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4932,14 +4941,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>270</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4949,14 +4958,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4965,14 +4974,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4982,11 +4991,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>12</v>
@@ -4998,14 +5007,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>37</v>
+        <v>293</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5015,11 +5024,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>271</v>
+        <v>155</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>12</v>
@@ -5031,14 +5040,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5048,14 +5057,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>198</v>
+        <v>271</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5064,14 +5073,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5081,7 +5090,7 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>295</v>
+        <v>198</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -5104,7 +5113,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5114,14 +5123,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>270</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5130,14 +5139,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>56</v>
+        <v>301</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5147,14 +5156,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>37</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5163,14 +5172,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5180,14 +5189,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>304</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5203,24 +5212,24 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>115</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5229,14 +5238,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5246,11 +5255,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>12</v>
@@ -5262,14 +5271,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5279,14 +5288,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>228</v>
+        <v>311</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5295,14 +5304,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>33</v>
+        <v>313</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5312,11 +5321,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>312</v>
+        <v>228</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>313</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>73</v>
@@ -5335,7 +5344,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>315</v>
+        <v>33</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5345,14 +5354,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5368,7 +5377,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5378,11 +5387,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5401,7 +5410,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5418,7 +5427,7 @@
         <v>322</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5444,14 +5453,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>265</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>324</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5460,7 +5469,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5477,14 +5486,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>37</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5493,7 +5502,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5510,14 +5519,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>202</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>12</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5526,14 +5535,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5543,11 +5552,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>53</v>
+        <v>331</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>54</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>12</v>
@@ -5559,14 +5568,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>331</v>
+        <v>56</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5580,10 +5589,10 @@
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5592,14 +5601,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>334</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5609,14 +5618,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>308</v>
+        <v>53</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>249</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>12</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5625,14 +5634,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5642,14 +5651,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>69</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5658,14 +5667,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5675,14 +5684,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>319</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5691,14 +5700,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5708,11 +5717,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>175</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5724,14 +5733,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5741,14 +5750,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>48</v>
+        <v>339</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>270</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5757,14 +5766,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>324</v>
+        <v>154</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5774,14 +5783,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>228</v>
+        <v>48</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>12</v>
+        <v>270</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5790,14 +5799,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>33</v>
+        <v>327</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5807,49 +5816,82 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>319</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>7549.5500000000002</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>340</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
-        <v>341</v>
-      </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
         <v>342</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>33</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>71</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>321</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>322</v>
+      </c>
+      <c t="s" r="Q133" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>7703.5500000000002</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
+        <v>343</v>
+      </c>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
+        <v>344</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>345</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6488,10 +6530,15 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -566,7 +566,7 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>2:2</t>
   </si>
   <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
@@ -623,9 +623,6 @@
     <t>MILGA ADVANCE 30 F.C. TABS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>150.00</t>
   </si>
   <si>
@@ -992,55 +989,58 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سكاته بوب تون</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فاميليا مناديل </t>
+  </si>
+  <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>ماسك صنفره بوبانا</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
     <t>19:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سكاته بوب تون</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فاميليا مناديل </t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>ماسك صنفره بوبانا</t>
-  </si>
-  <si>
-    <t>مجموعه برد</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 25 مل</t>
-  </si>
-  <si>
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 9:19 PM</t>
+    <t>Saturday, 14 June, 2025 9:25 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3576,10 +3576,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3826,7 +3826,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3836,11 +3836,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3852,14 +3852,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3869,11 +3869,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3951,7 +3951,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3968,11 +3968,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -4001,11 +4001,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
@@ -4050,14 +4050,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4083,14 +4083,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4100,11 +4100,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>12</v>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4133,11 +4133,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>12</v>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4166,11 +4166,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>12</v>
@@ -4182,7 +4182,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4248,14 +4248,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
@@ -4281,14 +4281,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4331,11 +4331,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4364,11 +4364,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4380,7 +4380,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4413,14 +4413,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4434,7 +4434,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>83</v>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4479,14 +4479,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4496,11 +4496,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4512,14 +4512,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4529,11 +4529,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4545,14 +4545,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4562,11 +4562,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4595,11 +4595,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>12</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4628,11 +4628,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>12</v>
@@ -4644,14 +4644,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4661,11 +4661,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>56</v>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4698,7 +4698,7 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>12</v>
@@ -4710,7 +4710,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4743,7 +4743,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4760,11 +4760,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>12</v>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4793,11 +4793,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>12</v>
@@ -4809,7 +4809,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4826,7 +4826,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4842,7 +4842,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4859,11 +4859,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>12</v>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4892,11 +4892,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>12</v>
@@ -4908,7 +4908,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>41</v>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4958,11 +4958,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4974,14 +4974,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5007,14 +5007,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5040,7 +5040,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5057,7 +5057,7 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5094,7 +5094,7 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5106,14 +5106,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5123,11 +5123,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5139,14 +5139,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5156,14 +5156,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5172,7 +5172,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5222,11 +5222,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5238,14 +5238,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
@@ -5271,14 +5271,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5288,11 +5288,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>12</v>
@@ -5304,14 +5304,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5354,11 +5354,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>73</v>
@@ -5370,14 +5370,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5387,11 +5387,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>12</v>
@@ -5403,7 +5403,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5420,11 +5420,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>12</v>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5453,11 +5453,11 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>56</v>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5486,14 +5486,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>265</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5519,11 +5519,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>37</v>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5552,7 +5552,7 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5601,14 +5601,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5634,7 +5634,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5651,11 +5651,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>12</v>
@@ -5667,7 +5667,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5684,7 +5684,7 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5717,11 +5717,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>12</v>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
@@ -5750,7 +5750,7 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5787,10 +5787,10 @@
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5799,14 +5799,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5816,11 +5816,11 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>12</v>
@@ -5849,11 +5849,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>12</v>
@@ -5861,7 +5861,7 @@
     </row>
     <row r="134" ht="25.5" customHeight="1">
       <c r="P134" s="13">
-        <v>7703.5500000000002</v>
+        <v>7717.5500000000002</v>
       </c>
       <c r="Q134" s="13"/>
     </row>

--- a/DaySale_2025-06-14_00-00.xlsx
+++ b/DaySale_2025-06-14_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ADWIFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>72.00</t>
   </si>
   <si>
@@ -329,6 +341,15 @@
     <t>DERMOVATE 0.05 % OINTMENT 25 GM</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIAMICRON 60MG M.R. 30 SCORED TAB</t>
   </si>
   <si>
@@ -374,9 +395,6 @@
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -500,9 +518,6 @@
     <t>FUSI-ZON CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -761,9 +776,6 @@
     <t>PRIMPERAN 10MG/2ML 12 AMP.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>PURGATON 20MG 30 TAB.</t>
   </si>
   <si>
@@ -911,63 +923,66 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8668:0</t>
+    <t>8667:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>ZYRTEC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>اولويز ماكس طويل جدا</t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t>حلمة ببرونه</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>10.0000</t>
   </si>
   <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t>ZYRTEC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>اولويز ماكس طويل جدا</t>
-  </si>
-  <si>
-    <t>36:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t>حلمة ببرونه</t>
-  </si>
-  <si>
-    <t>21:0</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
@@ -995,9 +1010,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>6.0000</t>
-  </si>
-  <si>
     <t>سكاته بوب تون</t>
   </si>
   <si>
@@ -1019,6 +1031,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>ماسك صنفره بوبانا</t>
   </si>
   <si>
@@ -1031,6 +1046,9 @@
     <t>محلول ملح</t>
   </si>
   <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>معجون سيجنال 25 مل</t>
   </si>
   <si>
@@ -1040,7 +1058,7 @@
     <t>معجون سيجنال اطفال 50 ملل</t>
   </si>
   <si>
-    <t>Saturday, 14 June, 2025 9:25 PM</t>
+    <t>Saturday, 14 June, 2025 9:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1714,7 +1732,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1724,14 +1742,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1747,7 +1765,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1757,14 +1775,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1773,14 +1791,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1797,7 +1815,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1863,7 +1881,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1896,7 +1914,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1945,7 +1963,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1955,14 +1973,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1971,14 +1989,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1988,14 +2006,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2004,7 +2022,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -2021,11 +2039,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -2037,14 +2055,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -2054,14 +2072,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2094,7 +2112,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2127,7 +2145,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2143,7 +2161,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2153,14 +2171,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2169,14 +2187,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2193,7 +2211,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2209,24 +2227,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2235,31 +2253,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2275,24 +2293,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2301,14 +2319,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2318,11 +2336,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2334,20 +2352,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -2358,7 +2376,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2374,24 +2392,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2400,14 +2418,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2417,11 +2435,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2433,14 +2451,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2450,14 +2468,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2466,14 +2484,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2483,14 +2501,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2506,7 +2524,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2516,14 +2534,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2532,14 +2550,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2549,14 +2567,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2565,14 +2583,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2582,14 +2600,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2598,14 +2616,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2615,14 +2633,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2631,14 +2649,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2648,14 +2666,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2664,14 +2682,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2681,14 +2699,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2704,7 +2722,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2714,11 +2732,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2730,14 +2748,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2747,11 +2765,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2763,14 +2781,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2780,14 +2798,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2803,7 +2821,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>124</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2813,14 +2831,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2829,14 +2847,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2846,14 +2864,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2869,7 +2887,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2886,7 +2904,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2902,7 +2920,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2919,7 +2937,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2935,7 +2953,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2945,14 +2963,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2961,14 +2979,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2978,11 +2996,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2994,14 +3012,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3011,14 +3029,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3027,14 +3045,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3044,14 +3062,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3060,31 +3078,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3093,14 +3111,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>149</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3110,11 +3128,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3126,31 +3144,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>37</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3159,14 +3177,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3176,14 +3194,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3199,7 +3217,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3209,14 +3227,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3232,7 +3250,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3242,11 +3260,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3258,14 +3276,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3275,14 +3293,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3291,14 +3309,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3308,14 +3326,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3324,14 +3342,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3341,14 +3359,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3357,14 +3375,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3374,14 +3392,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3397,7 +3415,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3407,14 +3425,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3423,14 +